--- a/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/datos_disponibles_tudinero_cdmx.xlsx
+++ b/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/datos_disponibles_tudinero_cdmx.xlsx
@@ -1,2535 +1,2556 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/Documentos - MacBook Pro de Juvenal/GitHub/ig_juvenalcampos.dataviz/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20360608-D33B-984B-B2B2-C257CBF3943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24220" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
-  <si>
-    <t xml:space="preserve">datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion_tarjeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enlaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTFS estático (General Transit Feed Specifications) de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El GTFS estático (General Transit Feed Specification) define un formato común para dar a conocer la operación del transporte público y la información geográfica asociada. Se usa...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/gtfs;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>descripcion_tarjeta</t>
+  </si>
+  <si>
+    <t>enlaces</t>
+  </si>
+  <si>
+    <t>pagina</t>
+  </si>
+  <si>
+    <t>GTFS estático (General Transit Feed Specifications) de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>El GTFS estático (General Transit Feed Specification) define un formato común para dar a conocer la operación del transporte público y la información geográfica asociada. Se usa...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/gtfs;
  https://datos.cdmx.gob.mx//dataset/gtfs;
  https://datos.cdmx.gob.mx//dataset/gtfs</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casos a nivel nacional asociados a covid-19 para la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos incluye todos los casos diarios asociados a COVID-19 a nivel federal. Cuenta con contenido desagregado por sexo, edad, nacionalidad, padecimientos asociados...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19;
+    <t>1</t>
+  </si>
+  <si>
+    <t>Casos a nivel nacional asociados a covid-19 para la CDMX</t>
+  </si>
+  <si>
+    <t>Esta base de datos incluye todos los casos diarios asociados a COVID-19 a nivel federal. Cuenta con contenido desagregado por sexo, edad, nacionalidad, padecimientos asociados...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19;
  https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Histórico de Capacidad hospitalaria ZMVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVERTENCIA El objetivo de esta base de datos es brindar información de forma HISTÓRICA. Para tomar decisiones en TIEMPO REAL sobre la capacidad hospitalaria te sugerimos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/capacidad-hospitalaria;
+    <t>Histórico de Capacidad hospitalaria ZMVM</t>
+  </si>
+  <si>
+    <t>ADVERTENCIA El objetivo de esta base de datos es brindar información de forma HISTÓRICA. Para tomar decisiones en TIEMPO REAL sobre la capacidad hospitalaria te sugerimos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/capacidad-hospitalaria;
  https://datos.cdmx.gob.mx//dataset/capacidad-hospitalaria;
  https://datos.cdmx.gob.mx//dataset/capacidad-hospitalaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de pruebas, total de positivos y tasa de positividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el objetivo de determinar el avance de positividad por SARS-COV2 en la Ciudad de México, se apertura la base de datos que contiene la información correspondiente al...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/total-de-pruebas-total-de-positivos-y-tasa-de-positividad;
+    <t>Total de pruebas, total de positivos y tasa de positividad</t>
+  </si>
+  <si>
+    <t>Con el objetivo de determinar el avance de positividad por SARS-COV2 en la Ciudad de México, se apertura la base de datos que contiene la información correspondiente al...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/total-de-pruebas-total-de-positivos-y-tasa-de-positividad;
  https://datos.cdmx.gob.mx//dataset/total-de-pruebas-total-de-positivos-y-tasa-de-positividad;
  https://datos.cdmx.gob.mx//dataset/total-de-pruebas-total-de-positivos-y-tasa-de-positividad</t>
   </si>
   <si>
-    <t xml:space="preserve">Personas Hospitalizadas en Hospitales de la ZMVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene el total diario de personas hospitalizadas, confirmadas o sospechosas, por COVID-19 en los todos los hospitales y centros médicos de la Zona...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-en-hospitales-de-zmvm;
+    <t>Personas Hospitalizadas en Hospitales de la ZMVM</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene el total diario de personas hospitalizadas, confirmadas o sospechosas, por COVID-19 en los todos los hospitales y centros médicos de la Zona...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-en-hospitales-de-zmvm;
  https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-en-hospitales-de-zmvm;
  https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-en-hospitales-de-zmvm</t>
   </si>
   <si>
-    <t xml:space="preserve">Casos activos de Covid-19 en Ciudad de México a nivel colonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra el número de casos asociados a COVID-19 a nivel colonia. Su propósito es meramente informativo. Es importante considerar que: - Sólo considera a casos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/covid-19-sinave-ciudad-de-mexico-a-nivel-colonia;
+    <t>Casos activos de Covid-19 en Ciudad de México a nivel colonia</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra el número de casos asociados a COVID-19 a nivel colonia. Su propósito es meramente informativo. Es importante considerar que: - Sólo considera a casos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/covid-19-sinave-ciudad-de-mexico-a-nivel-colonia;
  https://datos.cdmx.gob.mx//dataset/covid-19-sinave-ciudad-de-mexico-a-nivel-colonia</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto de egresos de la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presupuesto de egresos de la Ciudad de México, con las clasificaciones administrativas, económicas y funcionales, para conocer quién gasta, en qué gasta y para qué gasta el...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/presupuesto-de-egresos;
+    <t>Presupuesto de egresos de la Ciudad</t>
+  </si>
+  <si>
+    <t>Presupuesto de egresos de la Ciudad de México, con las clasificaciones administrativas, económicas y funcionales, para conocer quién gasta, en qué gasta y para qué gasta el...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/presupuesto-de-egresos;
  https://datos.cdmx.gob.mx//dataset/presupuesto-de-egresos;
  https://datos.cdmx.gob.mx//dataset/presupuesto-de-egresos;
  https://datos.cdmx.gob.mx//dataset/presupuesto-de-egresos</t>
   </si>
   <si>
-    <t xml:space="preserve">Histórico de pagos por Unidad Responsable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro histórico de los pagos realizados por el Gobierno de la ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/historico-de-pagos-por-unidad-responsable;
+    <t>Histórico de pagos por Unidad Responsable</t>
+  </si>
+  <si>
+    <t>Registro histórico de los pagos realizados por el Gobierno de la ciudad</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/historico-de-pagos-por-unidad-responsable;
  https://datos.cdmx.gob.mx//dataset/historico-de-pagos-por-unidad-responsable;
  https://datos.cdmx.gob.mx//dataset/historico-de-pagos-por-unidad-responsable</t>
   </si>
   <si>
-    <t xml:space="preserve">Covid-19 SINAVE Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base del Sistema Nacional de Vigilancia Epidemiologica para el seguimiento a posibles casos de COVID-19 en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/base-covid-sinave;
+    <t>Covid-19 SINAVE Ciudad de México</t>
+  </si>
+  <si>
+    <t>Base del Sistema Nacional de Vigilancia Epidemiologica para el seguimiento a posibles casos de COVID-19 en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/base-covid-sinave;
  https://datos.cdmx.gob.mx//dataset/base-covid-sinave;
  https://datos.cdmx.gob.mx//dataset/base-covid-sinave</t>
   </si>
   <si>
-    <t xml:space="preserve">Víctimas en carpetas de investigación FGJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene la información actualizada de las víctimas de los delitos en las carpetas de investigación de la Fiscalía General de Justicia (FGJ) de la Ciudad de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/victimas-en-carpetas-de-investigacion-fgj;
+    <t>Víctimas en carpetas de investigación FGJ</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene la información actualizada de las víctimas de los delitos en las carpetas de investigación de la Fiscalía General de Justicia (FGJ) de la Ciudad de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/victimas-en-carpetas-de-investigacion-fgj;
  https://datos.cdmx.gob.mx//dataset/victimas-en-carpetas-de-investigacion-fgj;
  https://datos.cdmx.gob.mx//dataset/victimas-en-carpetas-de-investigacion-fgj;
  https://datos.cdmx.gob.mx//dataset/victimas-en-carpetas-de-investigacion-fgj</t>
   </si>
   <si>
-    <t xml:space="preserve">Carpetas de investigación FGJ de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene la información actualizada de las carpetas de investigación de la Fiscalía General de Justicia (FGJ) de la Ciudad de México a partir de enero de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-fgj-de-la-ciudad-de-mexico;
+    <t>Carpetas de investigación FGJ de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene la información actualizada de las carpetas de investigación de la Fiscalía General de Justicia (FGJ) de la Ciudad de México a partir de enero de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-fgj-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-fgj-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-fgj-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluencia preliminar en transporte público</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene los datos preliminares de la afluencia diaria de pasajeros en el transporte público en la Ciudad de México, reportados por los siguientes organismos:...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/afluencia-preliminar-en-transporte-publico;
+    <t>Afluencia preliminar en transporte público</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene los datos preliminares de la afluencia diaria de pasajeros en el transporte público en la Ciudad de México, reportados por los siguientes organismos:...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/afluencia-preliminar-en-transporte-publico;
  https://datos.cdmx.gob.mx//dataset/afluencia-preliminar-en-transporte-publico</t>
   </si>
   <si>
-    <t xml:space="preserve">Establecimientos de hospedaje por categoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los establecimientos de hospedaje de la Ciudad de México por categoría.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/establecimientos-de-hospedaje-por-categoria;
+    <t>Establecimientos de hospedaje por categoría</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los establecimientos de hospedaje de la Ciudad de México por categoría.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/establecimientos-de-hospedaje-por-categoria;
  https://datos.cdmx.gob.mx//dataset/establecimientos-de-hospedaje-por-categoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Marco Geográfico Electoral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este conjunto de datos podrás encontrar la delimitación de la Ciudad de México en: Demarcaciones territoriales Circunscripciones Distritos Locales Secciones electorales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/marco-geografico-electoral;
+    <t>Marco Geográfico Electoral</t>
+  </si>
+  <si>
+    <t>En este conjunto de datos podrás encontrar la delimitación de la Ciudad de México en: Demarcaciones territoriales Circunscripciones Distritos Locales Secciones electorales</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/marco-geografico-electoral;
  https://datos.cdmx.gob.mx//dataset/marco-geografico-electoral</t>
   </si>
   <si>
-    <t xml:space="preserve">Actas de defunción en el Registro Civil de la Ciudad de México a partir de 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos tiene como objetivo reportar las defunciones que ocurrieron en la Ciudad de México a partir del año 2017 y actualmente es utilizado para calcular el...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico;
+    <t>Actas de defunción en el Registro Civil de la Ciudad de México a partir de 2017</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos tiene como objetivo reportar las defunciones que ocurrieron en la Ciudad de México a partir del año 2017 y actualmente es utilizado para calcular el...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/actas-de-defuncion-en-el-registro-civil-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Promedios de 24 horas de partículas suspendidas(PM10 Y PM2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los Promedios de 24 horas de partículas suspendidas(PM10 Y PM2.5) a partir del 2018. Para ver los datos desde 1986, visita la página de Calidad del...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/promedios-particulas-suspendidas;
+    <t>Promedios de 24 horas de partículas suspendidas(PM10 Y PM2.5)</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los Promedios de 24 horas de partículas suspendidas(PM10 Y PM2.5) a partir del 2018. Para ver los datos desde 1986, visita la página de Calidad del...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/promedios-particulas-suspendidas;
  https://datos.cdmx.gob.mx//dataset/promedios-particulas-suspendidas;
  https://datos.cdmx.gob.mx//dataset/promedios-particulas-suspendidas;
  https://datos.cdmx.gob.mx//dataset/promedios-particulas-suspendidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Concentraciones de Contaminantes en el Aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra la Concentraciones de Contaminantes en el Aire a partir del 2018. Para ver los datos desde 1986, visita la página de Calidad del Aire de la Secretaría...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/contaminantes;
+    <t>Concentraciones de Contaminantes en el Aire</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra la Concentraciones de Contaminantes en el Aire a partir del 2018. Para ver los datos desde 1986, visita la página de Calidad del Aire de la Secretaría...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/contaminantes;
  https://datos.cdmx.gob.mx//dataset/contaminantes;
  https://datos.cdmx.gob.mx//dataset/contaminantes;
  https://datos.cdmx.gob.mx//dataset/contaminantes;
  https://datos.cdmx.gob.mx//dataset/contaminantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventario de Programas y Acciones Sociales ante el COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos incluye los programas y acciones sociales que se han puesto en marcha para atender los problemas de la población derivados de la pandemia por COVID-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/inventario-de-acciones-y-programas-sociales-rendicion-de-cuentas;
+    <t>Inventario de Programas y Acciones Sociales ante el COVID-19</t>
+  </si>
+  <si>
+    <t>Esta base de datos incluye los programas y acciones sociales que se han puesto en marcha para atender los problemas de la población derivados de la pandemia por COVID-19.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/inventario-de-acciones-y-programas-sociales-rendicion-de-cuentas;
  https://datos.cdmx.gob.mx//dataset/inventario-de-acciones-y-programas-sociales-rendicion-de-cuentas;
  https://datos.cdmx.gob.mx//dataset/inventario-de-acciones-y-programas-sociales-rendicion-de-cuentas</t>
   </si>
   <si>
-    <t xml:space="preserve">Niveles Plomo en el Aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos la puedes encontrar en la página de la Dirección de la Calidad del Aire de la Secretaría de Medio Ambiente de la Ciudad de México. La página principal la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/niveles-plomo-en-el-aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diferencias porcentuales en la afluencia del Transporte Público en la ZMVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene las diferencias en la afluencia del metro, metrobús, STE, RTP, ecobici de la CDMX así como mexicable, mexibús y ferrocarril suburbano de la Zoma...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-la-afluencia-del-transporte-publico-en-la-zmvm;
+    <t>Niveles Plomo en el Aire</t>
+  </si>
+  <si>
+    <t>Esta base de datos la puedes encontrar en la página de la Dirección de la Calidad del Aire de la Secretaría de Medio Ambiente de la Ciudad de México. La página principal la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/niveles-plomo-en-el-aire</t>
+  </si>
+  <si>
+    <t>Diferencias porcentuales en la afluencia del Transporte Público en la ZMVM</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene las diferencias en la afluencia del metro, metrobús, STE, RTP, ecobici de la CDMX así como mexicable, mexibús y ferrocarril suburbano de la Zoma...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-la-afluencia-del-transporte-publico-en-la-zmvm;
  https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-la-afluencia-del-transporte-publico-en-la-zmvm</t>
   </si>
   <si>
-    <t xml:space="preserve">Tránsito vehicular promedio en la CDMX por hora y semana (Waze)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de tránsito vehicular promedio en los días martes, miércoles y jueves a partir de la semana 12 de 2020, así como el correspondiente con...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana;
+    <t>Tránsito vehicular promedio en la CDMX por hora y semana (Waze)</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de tránsito vehicular promedio en los días martes, miércoles y jueves a partir de la semana 12 de 2020, así como el correspondiente con...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana;
  https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diferencias porcentuales en el Tránsito Vehicular en la CDMX (Waze)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene las diferencias en el tránsito diario de la CDMX a partir de la primer semana de marzo de 2020. Fuente: Waze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx;
+    <t>2</t>
+  </si>
+  <si>
+    <t>Diferencias porcentuales en el Tránsito Vehicular en la CDMX (Waze)</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene las diferencias en el tránsito diario de la CDMX a partir de la primer semana de marzo de 2020. Fuente: Waze</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx;
  https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Tránsito vehicular promedio en la CDMX por hora y semana (TomTom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de tránsito vehicular promedio en los días martes, miércoles y jueves a partir de la semana 49 de 2020, así como el correspondiente con...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana-tomtom;
+    <t>Tránsito vehicular promedio en la CDMX por hora y semana (TomTom)</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de tránsito vehicular promedio en los días martes, miércoles y jueves a partir de la semana 49 de 2020, así como el correspondiente con...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana-tomtom;
  https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-la-cdmx-por-hora-y-semana-tomtom</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencias porcentuales en el Tránsito Vehicular en la CDMX por semana (TomTom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-por-semana-tomtom;
+    <t>Diferencias porcentuales en el Tránsito Vehicular en la CDMX por semana (TomTom)</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-por-semana-tomtom;
  https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-por-semana-tomtom</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencias porcentuales en el Tránsito Vehicular en la CDMX (TomTom)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene las diferencias en el tránsito diario de la CDMX a partir de la primer semana de marzo de 2020. Fuente: TomTom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-tomtom;
+    <t>Diferencias porcentuales en el Tránsito Vehicular en la CDMX (TomTom)</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene las diferencias en el tránsito diario de la CDMX a partir de la primer semana de marzo de 2020. Fuente: TomTom</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-tomtom;
  https://datos.cdmx.gob.mx//dataset/diferencias-porcentuales-en-el-transito-vehicular-en-la-cdmx-tomtom</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluencia diaria del Metro CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base muestra la afluencia diaria del Metro CDMX. Los datos abarcan de enero de 2010 a febrero de 2020. Esta base se actualizará mensualmente. Para ver los datos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/afluencia-diaria-del-metro-cdmx;
+    <t>Afluencia diaria del Metro CDMX</t>
+  </si>
+  <si>
+    <t>Esta base muestra la afluencia diaria del Metro CDMX. Los datos abarcan de enero de 2010 a febrero de 2020. Esta base se actualizará mensualmente. Para ver los datos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/afluencia-diaria-del-metro-cdmx;
  https://datos.cdmx.gob.mx//dataset/afluencia-diaria-del-metro-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluencia diaria de Metrobús CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base muestra la afluencia diaria por línea del Metrobús CDMX. Los datos abarcan de julio de 2005 a abril de 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/afluencia-diaria-de-metrobus-cdmx;
+    <t>Afluencia diaria de Metrobús CDMX</t>
+  </si>
+  <si>
+    <t>Esta base muestra la afluencia diaria por línea del Metrobús CDMX. Los datos abarcan de julio de 2005 a abril de 2020.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/afluencia-diaria-de-metrobus-cdmx;
  https://datos.cdmx.gob.mx//dataset/afluencia-diaria-de-metrobus-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Remuneraciones al Personal de las Alcaldías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información sobre las personas servidoras públicas cuyo puesto está afiliado a las Alcaldías de la Ciudad de México y es usada para la sección de Remuneraciones al Personal del...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-las-alcaldias;
+    <t>Remuneraciones al Personal de las Alcaldías</t>
+  </si>
+  <si>
+    <t>Información sobre las personas servidoras públicas cuyo puesto está afiliado a las Alcaldías de la Ciudad de México y es usada para la sección de Remuneraciones al Personal del...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-las-alcaldias</t>
   </si>
   <si>
-    <t xml:space="preserve">Remuneraciones al Personal de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información sobre las personas servidoras públicas cuyo puesto está en la nómina del gobierno de la Ciudad de México y es usada para la sección de Remuneraciones al Personal del...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-la-ciudad-de-mexico;
+    <t>Remuneraciones al Personal de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Información sobre las personas servidoras públicas cuyo puesto está en la nómina del gobierno de la Ciudad de México y es usada para la sección de Remuneraciones al Personal del...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/remuneraciones-al-personal-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación de puntos de acceso gratuito a internet WiFi en Cablebús L1 y L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos se pueden consultar las ubicaciones de los puntos WiFi habilitados en la Línea 1 y Línea 2 del Cablebus de la Ciudad de México. En ambas Líneas, el...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/wifi-en-cablebus;
+    <t>Ubicación de puntos de acceso gratuito a internet WiFi en Cablebús L1 y L2</t>
+  </si>
+  <si>
+    <t>En esta base de datos se pueden consultar las ubicaciones de los puntos WiFi habilitados en la Línea 1 y Línea 2 del Cablebus de la Ciudad de México. En ambas Líneas, el...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/wifi-en-cablebus;
  https://datos.cdmx.gob.mx//dataset/wifi-en-cablebus</t>
   </si>
   <si>
-    <t xml:space="preserve">Establecimientos suspendidos por el Instituto de Verificación Administrativa ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establecimientos con Suspensión de Actividades realizada por el Instituto de Verificación Administrativa ante la emergencia de COVID-19. La base de datos contiene los siguientes...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/establecimientos-suspendidos-invea-covid19;
+    <t>Establecimientos suspendidos por el Instituto de Verificación Administrativa ...</t>
+  </si>
+  <si>
+    <t>Establecimientos con Suspensión de Actividades realizada por el Instituto de Verificación Administrativa ante la emergencia de COVID-19. La base de datos contiene los siguientes...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/establecimientos-suspendidos-invea-covid19;
  https://datos.cdmx.gob.mx//dataset/establecimientos-suspendidos-invea-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicios para la población en general LOCATEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar toda la información de las llamadas realizadas al servicio LOCATEL desde noviembre de 2016. Esta información se actualizará semanalmente a partir...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/servicios-para-la-poblacion-en-general;
+    <t>Servicios para la población en general LOCATEL</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar toda la información de las llamadas realizadas al servicio LOCATEL desde noviembre de 2016. Esta información se actualizará semanalmente a partir...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/servicios-para-la-poblacion-en-general;
  https://datos.cdmx.gob.mx//dataset/servicios-para-la-poblacion-en-general;
  https://datos.cdmx.gob.mx//dataset/servicios-para-la-poblacion-en-general;
  https://datos.cdmx.gob.mx//dataset/servicios-para-la-poblacion-en-general</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresos Parquimetros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros;
+    <t>Ingresos Parquimetros</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros;
  https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros;
  https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros</t>
   </si>
   <si>
-    <t xml:space="preserve">Traslados a hospitales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos de los traslados a hospitales llevados a cabo en Ciudad de México, por probable caso positivo de COVID-19. La contabilización de los datos inicia con la remisión...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/traslados-a-hospitales;
+    <t>Traslados a hospitales</t>
+  </si>
+  <si>
+    <t>Base de datos de los traslados a hospitales llevados a cabo en Ciudad de México, por probable caso positivo de COVID-19. La contabilización de los datos inicia con la remisión...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/traslados-a-hospitales;
  https://datos.cdmx.gob.mx//dataset/traslados-a-hospitales;
  https://datos.cdmx.gob.mx//dataset/traslados-a-hospitales</t>
   </si>
   <si>
-    <t xml:space="preserve">Códigos Postales de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos podrás encontrar los Códigos Postales de la Ciudad de México. Para más información visita esta liga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/codigos-postales;
+    <t>Códigos Postales de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>En esta base de datos podrás encontrar los Códigos Postales de la Ciudad de México. Para más información visita esta liga.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/codigos-postales;
  https://datos.cdmx.gob.mx//dataset/codigos-postales</t>
   </si>
   <si>
-    <t xml:space="preserve">Coordinaciones territoriales de seguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este archivo contiene los datos de las 70 Coordinaciones Territoriales de Seguridad Pública y Procuración de Justicia de la Ciudad de México: delimitación territorial,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/coordinaciones;
+    <t>Coordinaciones territoriales de seguridad</t>
+  </si>
+  <si>
+    <t>Este archivo contiene los datos de las 70 Coordinaciones Territoriales de Seguridad Pública y Procuración de Justicia de la Ciudad de México: delimitación territorial,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/coordinaciones;
  https://datos.cdmx.gob.mx//dataset/coordinaciones;
  https://datos.cdmx.gob.mx//dataset/coordinaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Colonias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delimitación territorial de las colonias de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/coloniascdmx;
+    <t>Colonias</t>
+  </si>
+  <si>
+    <t>Delimitación territorial de las colonias de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/coloniascdmx;
  https://datos.cdmx.gob.mx//dataset/coloniascdmx;
  https://datos.cdmx.gob.mx//dataset/coloniascdmx;
  https://datos.cdmx.gob.mx//dataset/coloniascdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Sectores de la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delimitación territorial de los 73 sectores que conforman la Estrategia de Proximidad de Cuadrantes de la Secretaría de Seguridad Ciudadana. Para más información consultar la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/sectores;
+    <t>Sectores de la CDMX</t>
+  </si>
+  <si>
+    <t>Delimitación territorial de los 73 sectores que conforman la Estrategia de Proximidad de Cuadrantes de la Secretaría de Seguridad Ciudadana. Para más información consultar la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/sectores;
  https://datos.cdmx.gob.mx//dataset/sectores;
  https://datos.cdmx.gob.mx//dataset/sectores</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuadrantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delimitación territorial de los 847 cuadrantes que conforman la Estrategia de Proximidad de Cuadrantes de la Secretaría de Seguridad Ciudadana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/cuadrantes;
+    <t>Cuadrantes</t>
+  </si>
+  <si>
+    <t>Delimitación territorial de los 847 cuadrantes que conforman la Estrategia de Proximidad de Cuadrantes de la Secretaría de Seguridad Ciudadana.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/cuadrantes;
  https://datos.cdmx.gob.mx//dataset/cuadrantes;
  https://datos.cdmx.gob.mx//dataset/cuadrantes;
  https://datos.cdmx.gob.mx//dataset/cuadrantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Límite de las Alcaldías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los límites de las 16 alcaldías de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/limite-de-las-alcaldias;
+    <t>Límite de las Alcaldías</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los límites de las 16 alcaldías de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/limite-de-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/limite-de-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/limite-de-las-alcaldias</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamizajes CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base describe los registros del uso del servicio SMS-COVID. El servicio consiste en un tamizaje para la determinación de riesgo de infección por el virus SRAS-CoV-2,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/tamizajes-cdmx;
+    <t>Tamizajes CDMX</t>
+  </si>
+  <si>
+    <t>Esta base describe los registros del uso del servicio SMS-COVID. El servicio consiste en un tamizaje para la determinación de riesgo de infección por el virus SRAS-CoV-2,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/tamizajes-cdmx;
  https://datos.cdmx.gob.mx//dataset/tamizajes-cdmx;
  https://datos.cdmx.gob.mx//dataset/tamizajes-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresos del Sistema de Transporte Colectivo Metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de los ingresos del Sistema de Transporte Colectivo Metro, por línea a partir del año 2012.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos-del-sistema-de-transporte-colectivo-metro;
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ingresos del Sistema de Transporte Colectivo Metro</t>
+  </si>
+  <si>
+    <t>Registro de los ingresos del Sistema de Transporte Colectivo Metro, por línea a partir del año 2012.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos-del-sistema-de-transporte-colectivo-metro;
  https://datos.cdmx.gob.mx//dataset/ingresos-del-sistema-de-transporte-colectivo-metro;
  https://datos.cdmx.gob.mx//dataset/ingresos-del-sistema-de-transporte-colectivo-metro</t>
   </si>
   <si>
-    <t xml:space="preserve">Comedores CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos incluye la dirección de todos los comedores públicos de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/comedores-cdmx;
+    <t>Comedores CDMX</t>
+  </si>
+  <si>
+    <t>Esta base de datos incluye la dirección de todos los comedores públicos de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/comedores-cdmx;
  https://datos.cdmx.gob.mx//dataset/comedores-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Víctimas en carpetas de investigación PGJ (archivo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene la información de las víctimas de los delitos en las carpetas de investigación de la Procuraduría General de Justicia (PGJ) de la Ciudad de México a...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/denuncias-victimas-pgj;
+    <t>Víctimas en carpetas de investigación PGJ (archivo)</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene la información de las víctimas de los delitos en las carpetas de investigación de la Procuraduría General de Justicia (PGJ) de la Ciudad de México a...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/denuncias-victimas-pgj;
  https://datos.cdmx.gob.mx//dataset/denuncias-victimas-pgj</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de proveedores vigente de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos que contiene la relación de personas físicas y morales inscritas en el Padrón de Proveedores de la Administración Pública de la Ciudad de México vigente. Se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/tabla-padron-de-proveedores-vigente-sheet1;
+    <t>Padrón de proveedores vigente de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Base de datos que contiene la relación de personas físicas y morales inscritas en el Padrón de Proveedores de la Administración Pública de la Ciudad de México vigente. Se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/tabla-padron-de-proveedores-vigente-sheet1;
  https://datos.cdmx.gob.mx//dataset/tabla-padron-de-proveedores-vigente-sheet1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciclovías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infraestructura ciclista (ciclovías) de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ciclovias;
+    <t>Ciclovías</t>
+  </si>
+  <si>
+    <t>Infraestructura ciclista (ciclovías) de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ciclovias;
  https://datos.cdmx.gob.mx//dataset/ciclovias;
  https://datos.cdmx.gob.mx//dataset/ciclovias</t>
   </si>
   <si>
-    <t xml:space="preserve">Infracciones de tránsito la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene información de las infracciones de tránsito levantadas en la Ciudad de México. La publicación de la información contenida en las bases de datos ha...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/infracciones-transito;
+    <t>Infracciones de tránsito la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene información de las infracciones de tránsito levantadas en la Ciudad de México. La publicación de la información contenida en las bases de datos ha...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/infracciones-transito;
  https://datos.cdmx.gob.mx//dataset/infracciones-transito;
  https://datos.cdmx.gob.mx//dataset/infracciones-transito</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistemas de Captación de Agua de Lluvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información de los Sistemas de Captación de Agua de Lluvia (SCALL) en viviendas de la Ciudad de México y una nota informativa en la que se explica...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/scall;
+    <t>Sistemas de Captación de Agua de Lluvia</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información de los Sistemas de Captación de Agua de Lluvia (SCALL) en viviendas de la Ciudad de México y una nota informativa en la que se explica...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/scall;
  https://datos.cdmx.gob.mx//dataset/scall;
  https://datos.cdmx.gob.mx//dataset/scall;
  https://datos.cdmx.gob.mx//dataset/scall</t>
   </si>
   <si>
-    <t xml:space="preserve">Información vial de apoyo a la gestión del tránsito (INFOVIAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFOVIAL fue un Sistema de Información Vial de Apoyo a la Gestión de Tránsito que medía en tiempo real los indicadores de tránsito en 26 vialidades primarias de la CDMX....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/informacion-vial-de-apoyo-a-la-gestion-del-transito-infovial;
+    <t>Información vial de apoyo a la gestión del tránsito (INFOVIAL)</t>
+  </si>
+  <si>
+    <t>INFOVIAL fue un Sistema de Información Vial de Apoyo a la Gestión de Tránsito que medía en tiempo real los indicadores de tránsito en 26 vialidades primarias de la CDMX....</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/informacion-vial-de-apoyo-a-la-gestion-del-transito-infovial;
  https://datos.cdmx.gob.mx//dataset/informacion-vial-de-apoyo-a-la-gestion-del-transito-infovial;
  https://datos.cdmx.gob.mx//dataset/informacion-vial-de-apoyo-a-la-gestion-del-transito-infovial</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema Unificado de Atención Ciudadana (SUAC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra información del Sistema Unificado de Atención Ciudadana (SUAC) El SUAC es la plataforma única de atención ciudadana creada por la Agencia Digital de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/sistema-unificado-de-atencion-ciudadana-suac;
+    <t>Sistema Unificado de Atención Ciudadana (SUAC)</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra información del Sistema Unificado de Atención Ciudadana (SUAC) El SUAC es la plataforma única de atención ciudadana creada por la Agencia Digital de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/sistema-unificado-de-atencion-ciudadana-suac;
  https://datos.cdmx.gob.mx//dataset/sistema-unificado-de-atencion-ciudadana-suac</t>
   </si>
   <si>
-    <t xml:space="preserve">Estatus de conectividad en PILARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos se pueden consultar las ubicaciones y estatus de conectividad de los PILARES en la Ciudad de México. Los PILARES son Puntos de Innovación, Arte, Libertad,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estatus-de-conectividad-en-pilares;
+    <t>Estatus de conectividad en PILARES</t>
+  </si>
+  <si>
+    <t>En esta base de datos se pueden consultar las ubicaciones y estatus de conectividad de los PILARES en la Ciudad de México. Los PILARES son Puntos de Innovación, Arte, Libertad,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estatus-de-conectividad-en-pilares;
  https://datos.cdmx.gob.mx//dataset/estatus-de-conectividad-en-pilares</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresos de la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base con información sobre los ingresos que recibe el gobierno de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos;
+    <t>Ingresos de la Ciudad</t>
+  </si>
+  <si>
+    <t>Base con información sobre los ingresos que recibe el gobierno de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos;
  https://datos.cdmx.gob.mx//dataset/ingresos;
  https://datos.cdmx.gob.mx//dataset/ingresos</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - zona cero 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zona de mayor afectación del sismo de 2017. Responde a criterios tanto de la composición del subsuelo como a los inmuebles afectados. Tras la necesidad de segmentarla, se optó...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-2017;
+    <t>Atlas de riesgo - zona cero 2017</t>
+  </si>
+  <si>
+    <t>Zona de mayor afectación del sismo de 2017. Responde a criterios tanto de la composición del subsuelo como a los inmuebles afectados. Tras la necesidad de segmentarla, se optó...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-2017;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-2017;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Precipitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de precipitación del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion;
+    <t>Atlas de riesgo - Precipitación</t>
+  </si>
+  <si>
+    <t>Indicador de precipitación del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-precipitacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - zona cero 1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zona de mayor afectación del sismo de 1985 delimitada en 4 cuadrantes que correspondía a la zona centro de la ciudad (delegaciones centrales), debido a que en ellas se concentró...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-1985;
+    <t>Atlas de riesgo - zona cero 1985</t>
+  </si>
+  <si>
+    <t>Zona de mayor afectación del sismo de 1985 delimitada en 4 cuadrantes que correspondía a la zona centro de la ciudad (delegaciones centrales), debido a que en ellas se concentró...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-1985;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-1985;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-zona-cero-1985</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Tormentas eléctricas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de tormentas eléctricas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas;
+    <t>Atlas de riesgo - Tormentas eléctricas</t>
+  </si>
+  <si>
+    <t>Indicador de tormentas eléctricas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-tormentas-electricas</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Temperaturas mínimas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de temperaturas mínimas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas;
+    <t>Atlas de riesgo - Temperaturas mínimas</t>
+  </si>
+  <si>
+    <t>Indicador de temperaturas mínimas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-minimas</t>
   </si>
   <si>
-    <t xml:space="preserve">Estaciones Metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geolocalización de las estaciones del Sistema de Transporte Colectivo Metro en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-metro;
+    <t>Estaciones Metro</t>
+  </si>
+  <si>
+    <t>Geolocalización de las estaciones del Sistema de Transporte Colectivo Metro en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-metro;
  https://datos.cdmx.gob.mx//dataset/estaciones-metro;
  https://datos.cdmx.gob.mx//dataset/estaciones-metro;
  https://datos.cdmx.gob.mx//dataset/estaciones-metro</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Temperaturas máximas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de temperaturas máximas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas;
+    <t>Atlas de riesgo - Temperaturas máximas</t>
+  </si>
+  <si>
+    <t>Indicador de temperaturas máximas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-temperaturas-maximas</t>
   </si>
   <si>
-    <t xml:space="preserve">Edificios que participan en el Macrosimulacro 19S 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este conjunto de datos se encuentra la lista de edificios participantes en el macro-simulacro del 19 de septiembre de 2019, actualizado al 13 de septiembre de 2019.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/edificios-que-participan-en-el-macrosimulacro-19s-2019;
+    <t>Edificios que participan en el Macrosimulacro 19S 2019</t>
+  </si>
+  <si>
+    <t>En este conjunto de datos se encuentra la lista de edificios participantes en el macro-simulacro del 19 de septiembre de 2019, actualizado al 13 de septiembre de 2019.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/edificios-que-participan-en-el-macrosimulacro-19s-2019;
  https://datos.cdmx.gob.mx//dataset/edificios-que-participan-en-el-macrosimulacro-19s-2019;
  https://datos.cdmx.gob.mx//dataset/edificios-que-participan-en-el-macrosimulacro-19s-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Denuncias realizadas ante la PAOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta es la base de datos de las denuncias que se realizan ante la Procuraduría Ambiental y del Ordenamiento Territorial de la Ciudad de México desde el 2002 a nivel de calle....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/denuncias-realizadas-ante-la-paot;
+    <t>Denuncias realizadas ante la PAOT</t>
+  </si>
+  <si>
+    <t>Esta es la base de datos de las denuncias que se realizan ante la Procuraduría Ambiental y del Ordenamiento Territorial de la Ciudad de México desde el 2002 a nivel de calle....</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/denuncias-realizadas-ante-la-paot;
  https://datos.cdmx.gob.mx//dataset/denuncias-realizadas-ante-la-paot;
  https://datos.cdmx.gob.mx//dataset/denuncias-realizadas-ante-la-paot;
  https://datos.cdmx.gob.mx//dataset/denuncias-realizadas-ante-la-paot</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escuelas privadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra la ubicación de las escuelas privadas de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/escuelas-privadas;
+    <t>4</t>
+  </si>
+  <si>
+    <t>Escuelas privadas</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra la ubicación de las escuelas privadas de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/escuelas-privadas;
  https://datos.cdmx.gob.mx//dataset/escuelas-privadas;
  https://datos.cdmx.gob.mx//dataset/escuelas-privadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Escuelas públicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de escuelas públicas en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/escuelas-publicas;
+    <t>Escuelas públicas</t>
+  </si>
+  <si>
+    <t>Ubicación de escuelas públicas en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/escuelas-publicas;
  https://datos.cdmx.gob.mx//dataset/escuelas-publicas;
  https://datos.cdmx.gob.mx//dataset/escuelas-publicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Estaciones del metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base muestra las estaciones de metro de la CDMX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-del-metro;
+    <t>Estaciones del metro</t>
+  </si>
+  <si>
+    <t>Esta base muestra las estaciones de metro de la CDMX.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-del-metro;
  https://datos.cdmx.gob.mx//dataset/estaciones-del-metro;
  https://datos.cdmx.gob.mx//dataset/estaciones-del-metro</t>
   </si>
   <si>
-    <t xml:space="preserve">Estaciones, paradas y terminales del sistema de transporte unificado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estaciones, paradas y terminales del sistema de transporte unificado de la Ciudad de México. Contiene las 6021 estaciones o paradas georrefenciadas correspondientes a:...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-paradas-y-terminales-del-sistema-de-transporte-unificado;
+    <t>Estaciones, paradas y terminales del sistema de transporte unificado</t>
+  </si>
+  <si>
+    <t>Estaciones, paradas y terminales del sistema de transporte unificado de la Ciudad de México. Contiene las 6021 estaciones o paradas georrefenciadas correspondientes a:...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-paradas-y-terminales-del-sistema-de-transporte-unificado;
  https://datos.cdmx.gob.mx//dataset/estaciones-paradas-y-terminales-del-sistema-de-transporte-unificado;
  https://datos.cdmx.gob.mx//dataset/estaciones-paradas-y-terminales-del-sistema-de-transporte-unificado</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitales_ISSSTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitales ISSTE de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/hospitales_issste;
+    <t>Hospitales_ISSSTE</t>
+  </si>
+  <si>
+    <t>Hospitales ISSTE de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/hospitales_issste;
  https://datos.cdmx.gob.mx//dataset/hospitales_issste;
  https://datos.cdmx.gob.mx//dataset/hospitales_issste</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitales y Centros de Salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicaciones georreferenciadas de los Hospitales y Centros de Salud del Gobierno de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/hospitales-y-centros-de-salud;
+    <t>Hospitales y Centros de Salud</t>
+  </si>
+  <si>
+    <t>Ubicaciones georreferenciadas de los Hospitales y Centros de Salud del Gobierno de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/hospitales-y-centros-de-salud;
  https://datos.cdmx.gob.mx//dataset/hospitales-y-centros-de-salud;
  https://datos.cdmx.gob.mx//dataset/hospitales-y-centros-de-salud</t>
   </si>
   <si>
-    <t xml:space="preserve">Intersecciones seguras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de las intersecciones intervenidas por año. Para mayor información del programa revisa esta liga:...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/intersecciones-seguras;
+    <t>Intersecciones seguras</t>
+  </si>
+  <si>
+    <t>Ubicación de las intersecciones intervenidas por año. Para mayor información del programa revisa esta liga:...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/intersecciones-seguras;
  https://datos.cdmx.gob.mx//dataset/intersecciones-seguras;
  https://datos.cdmx.gob.mx//dataset/intersecciones-seguras</t>
   </si>
   <si>
-    <t xml:space="preserve">Infraestructura social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de todos los centros de infraestructura social administrados por la Secretaría de Inclusión y Bienestar Social (SIBISO) tales como Centros de Asistencia e Integración...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/infraestructura-social-cdmx-final;
+    <t>Infraestructura social</t>
+  </si>
+  <si>
+    <t>Ubicación de todos los centros de infraestructura social administrados por la Secretaría de Inclusión y Bienestar Social (SIBISO) tales como Centros de Asistencia e Integración...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/infraestructura-social-cdmx-final;
  https://datos.cdmx.gob.mx//dataset/infraestructura-social-cdmx-final;
  https://datos.cdmx.gob.mx//dataset/infraestructura-social-cdmx-final</t>
   </si>
   <si>
-    <t xml:space="preserve">Agregación por Alcaldía de casos asociados a covid-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este tabla sirve para mostrar los resultados geográficos de https://datos.cdmx.gob.mx/pages/covid19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/mapa-covid;
+    <t>Agregación por Alcaldía de casos asociados a covid-19</t>
+  </si>
+  <si>
+    <t>Este tabla sirve para mostrar los resultados geográficos de https://datos.cdmx.gob.mx/pages/covid19/</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/mapa-covid;
  https://datos.cdmx.gob.mx/https://datos.cdmx.gob.mx/pages/covid19/;
  https://datos.cdmx.gob.mx//dataset/mapa-covid;
  https://datos.cdmx.gob.mx//dataset/mapa-covid</t>
   </si>
   <si>
-    <t xml:space="preserve">Paradas de RTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradas de servicio de la Red de Transporte de Pasajeros (RTP) de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/paradas-de-rtp;
+    <t>Paradas de RTP</t>
+  </si>
+  <si>
+    <t>Paradas de servicio de la Red de Transporte de Pasajeros (RTP) de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/paradas-de-rtp;
  https://datos.cdmx.gob.mx//dataset/paradas-de-rtp;
  https://datos.cdmx.gob.mx//dataset/paradas-de-rtp</t>
   </si>
   <si>
-    <t xml:space="preserve">Catálogo inmuebles afectos al patrimonio cultural urbano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catálogo de Inmuebles Afectos al Patrimonio Cultural Urbano de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/inmuebles-catalogados;
+    <t>Catálogo inmuebles afectos al patrimonio cultural urbano</t>
+  </si>
+  <si>
+    <t>Catálogo de Inmuebles Afectos al Patrimonio Cultural Urbano de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/inmuebles-catalogados;
  https://datos.cdmx.gob.mx//dataset/inmuebles-catalogados;
  https://datos.cdmx.gob.mx//dataset/inmuebles-catalogados</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas de Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de las líneas de Metrobús de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lineas-metrobus;
+    <t>Líneas de Metrobús</t>
+  </si>
+  <si>
+    <t>Ubicación de las líneas de Metrobús de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lineas-metrobus;
  https://datos.cdmx.gob.mx//dataset/lineas-metrobus;
  https://datos.cdmx.gob.mx//dataset/lineas-metrobus</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas de metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Línas del Sistema de Transporte Colectivo Metro de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lineas-de-metro;
+    <t>Líneas de metro</t>
+  </si>
+  <si>
+    <t>Línas del Sistema de Transporte Colectivo Metro de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lineas-de-metro;
  https://datos.cdmx.gob.mx//dataset/lineas-de-metro;
  https://datos.cdmx.gob.mx//dataset/lineas-de-metro</t>
   </si>
   <si>
-    <t xml:space="preserve">Mapa - Ingresos Parquímetros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información histórica sobre los ingresos por el pago de parquímetros en la Ciudad de México. Se especifican los rubros con los que se define el ingreso que recibe el Gobierno de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/mapa_ingresos_parquimetros;
+    <t>Mapa - Ingresos Parquímetros</t>
+  </si>
+  <si>
+    <t>Información histórica sobre los ingresos por el pago de parquímetros en la Ciudad de México. Se especifican los rubros con los que se define el ingreso que recibe el Gobierno de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/mapa_ingresos_parquimetros;
  https://datos.cdmx.gob.mx//dataset/mapa_ingresos_parquimetros;
  https://datos.cdmx.gob.mx//dataset/mapa_ingresos_parquimetros</t>
   </si>
   <si>
-    <t xml:space="preserve">Paradas de Trolebús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradas de Trolebús del Servicio de Transportes Eléctricos (STE) de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/paradas-de-trolebus;
+    <t>Paradas de Trolebús</t>
+  </si>
+  <si>
+    <t>Paradas de Trolebús del Servicio de Transportes Eléctricos (STE) de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/paradas-de-trolebus;
  https://datos.cdmx.gob.mx//dataset/paradas-de-trolebus;
  https://datos.cdmx.gob.mx//dataset/paradas-de-trolebus</t>
   </si>
   <si>
-    <t xml:space="preserve">Rutas y corredores del transporte público concesionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluye datos geográficos de 2,311 ramales. Se especifica la ruta o el corredor al que pertenecen los ramales y una descripción general de los mismos. El producto está basado en...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/rutas-y-corredores-del-transporte-publico-concesionado;
+    <t>Rutas y corredores del transporte público concesionado</t>
+  </si>
+  <si>
+    <t>Incluye datos geográficos de 2,311 ramales. Se especifica la ruta o el corredor al que pertenecen los ramales y una descripción general de los mismos. El producto está basado en...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/rutas-y-corredores-del-transporte-publico-concesionado;
  https://datos.cdmx.gob.mx//dataset/rutas-y-corredores-del-transporte-publico-concesionado;
  https://datos.cdmx.gob.mx//dataset/rutas-y-corredores-del-transporte-publico-concesionado</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Nevadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de nevadas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas;
+    <t>Atlas de riesgo - Nevadas</t>
+  </si>
+  <si>
+    <t>Indicador de nevadas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-nevadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Inundaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de inundaciones del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones;
+    <t>Atlas de riesgo - Inundaciones</t>
+  </si>
+  <si>
+    <t>Indicador de inundaciones del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-inundaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Índice de vulnerabilidad social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Índice de vulnerabilidad social del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social;
+    <t>Atlas de riesgo - Índice de vulnerabilidad social</t>
+  </si>
+  <si>
+    <t>Índice de vulnerabilidad social del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-indice-de-vulnerabilidad-social</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Granizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de granizo del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo;
+    <t>Atlas de riesgo - Granizo</t>
+  </si>
+  <si>
+    <t>Indicador de granizo del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-granizo</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificados de defunción de la Secretaría de Salud de la Ciudad de México a ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos tiene como objetivo brindar información detallada sobre los fallecimientos que ocurren en la Ciudad desde una perspectiva epidemiológica. Contiene los...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/certificados-de-defuncion-sedesa;
+    <t>5</t>
+  </si>
+  <si>
+    <t>Certificados de defunción de la Secretaría de Salud de la Ciudad de México a ...</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos tiene como objetivo brindar información detallada sobre los fallecimientos que ocurren en la Ciudad desde una perspectiva epidemiológica. Contiene los...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/certificados-de-defuncion-sedesa;
  https://datos.cdmx.gob.mx//dataset/certificados-de-defuncion-sedesa;
  https://datos.cdmx.gob.mx//dataset/certificados-de-defuncion-sedesa</t>
   </si>
   <si>
-    <t xml:space="preserve">Áreas naturales protegidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información sobre las áreas naturales protegidas en la Ciudad de México, su ubicación, superficie, categoría, tipo de suelo y nombre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/areas-naturales-protegidas;
+    <t>Áreas naturales protegidas</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información sobre las áreas naturales protegidas en la Ciudad de México, su ubicación, superficie, categoría, tipo de suelo y nombre.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/areas-naturales-protegidas;
  https://datos.cdmx.gob.mx//dataset/areas-naturales-protegidas;
  https://datos.cdmx.gob.mx//dataset/areas-naturales-protegidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Áreas de valor ambiental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base puedes encontrar información acerca de las áreas de valor ambiental en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/areas-de-valor-ambiental;
+    <t>Áreas de valor ambiental</t>
+  </si>
+  <si>
+    <t>En esta base puedes encontrar información acerca de las áreas de valor ambiental en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/areas-de-valor-ambiental;
  https://datos.cdmx.gob.mx//dataset/areas-de-valor-ambiental;
  https://datos.cdmx.gob.mx//dataset/areas-de-valor-ambiental</t>
   </si>
   <si>
-    <t xml:space="preserve">Área de operación de monopatines 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar las áreas en las que operan los monopatines eléctricos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-monopatines-2019;
+    <t>Área de operación de monopatines 2019</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar las áreas en las que operan los monopatines eléctricos.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-monopatines-2019;
  https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-monopatines-2019;
  https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-monopatines-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitios de servicios de atención a la violencia de género durante contingencia...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los servicios de atención a la violencia hacia las mujeres y acceso a la justicia en la Ciudad de México proporcionados durante la contingencia...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/servicios-atencion-violencia-mujeres-durante-contingencia-covid19;
+    <t>Sitios de servicios de atención a la violencia de género durante contingencia...</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los servicios de atención a la violencia hacia las mujeres y acceso a la justicia en la Ciudad de México proporcionados durante la contingencia...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/servicios-atencion-violencia-mujeres-durante-contingencia-covid19;
  https://datos.cdmx.gob.mx//dataset/servicios-atencion-violencia-mujeres-durante-contingencia-covid19;
  https://datos.cdmx.gob.mx//dataset/servicios-atencion-violencia-mujeres-durante-contingencia-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasos Seguros CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adecuaciones del espacio público del programa Pasos Seguros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/pasos-seguros-cdmx;
+    <t>Pasos Seguros CDMX</t>
+  </si>
+  <si>
+    <t>Adecuaciones del espacio público del programa Pasos Seguros.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/pasos-seguros-cdmx;
  https://datos.cdmx.gob.mx//dataset/pasos-seguros-cdmx;
  https://datos.cdmx.gob.mx//dataset/pasos-seguros-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Colonias Parquímetros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base puede consultarse las colonias en las que se encuentran instalados los equipos de cobro de parquímetros y el operador responsable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/colonias-parquimetros;
+    <t>Colonias Parquímetros</t>
+  </si>
+  <si>
+    <t>En esta base puede consultarse las colonias en las que se encuentran instalados los equipos de cobro de parquímetros y el operador responsable.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/colonias-parquimetros;
  https://datos.cdmx.gob.mx//dataset/colonias-parquimetros;
  https://datos.cdmx.gob.mx//dataset/colonias-parquimetros</t>
   </si>
   <si>
-    <t xml:space="preserve">Polígonos Reto Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información General para Datos Abiertos-Reto Verde Descripción del proyecto El Reto Verde es una iniciativa impulsada por Gobierno de la Ciudad de México a partir del año...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/poligonos-reto-verde;
+    <t>Polígonos Reto Verde</t>
+  </si>
+  <si>
+    <t>Información General para Datos Abiertos-Reto Verde Descripción del proyecto El Reto Verde es una iniciativa impulsada por Gobierno de la Ciudad de México a partir del año...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/poligonos-reto-verde;
  https://datos.cdmx.gob.mx//dataset/poligonos-reto-verde;
  https://datos.cdmx.gob.mx//dataset/poligonos-reto-verde</t>
   </si>
   <si>
-    <t xml:space="preserve">Puntos con operativo de simulacro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base se encuentran los puntos con operativo de simulacro en la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/puntos-con-operativo-de-simulacro;
+    <t>Puntos con operativo de simulacro</t>
+  </si>
+  <si>
+    <t>En esta base se encuentran los puntos con operativo de simulacro en la Ciudad de México</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/puntos-con-operativo-de-simulacro;
  https://datos.cdmx.gob.mx//dataset/puntos-con-operativo-de-simulacro;
  https://datos.cdmx.gob.mx//dataset/puntos-con-operativo-de-simulacro</t>
   </si>
   <si>
-    <t xml:space="preserve">Puntos de arribo para los sistemas de transporte individual sustentable (SiTIS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los puntos de arribo de monopatines eléctricos y bicicletas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/puntos-de-arribo-sitis;
+    <t>Puntos de arribo para los sistemas de transporte individual sustentable (SiTIS)</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los puntos de arribo de monopatines eléctricos y bicicletas.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/puntos-de-arribo-sitis;
  https://datos.cdmx.gob.mx//dataset/puntos-de-arribo-sitis;
  https://datos.cdmx.gob.mx//dataset/puntos-de-arribo-sitis</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa Mi Calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi Calle consiste en la instalación de tótems en domicilios de 333 colonias prioritarias de la Ciudad de México, los cuáles incluyen cámaras de videovigilancia, alertas (sonoras...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes;
+    <t>Programa Mi Calle</t>
+  </si>
+  <si>
+    <t>Mi Calle consiste en la instalación de tótems en domicilios de 333 colonias prioritarias de la Ciudad de México, los cuáles incluyen cámaras de videovigilancia, alertas (sonoras...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes;
  https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes;
  https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes;
  https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes;
  https://datos.cdmx.gob.mx//dataset/programa-mi-calle-shapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Reconstrucción multifamiliares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los datos acerca de las unidades multifamiliares o edificios dañados por el sismo del 19 de septiembre de 2017. Incluye información sobre la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/reconstruccion-multifamiliares-cdmx;
+    <t>Reconstrucción multifamiliares</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los datos acerca de las unidades multifamiliares o edificios dañados por el sismo del 19 de septiembre de 2017. Incluye información sobre la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/reconstruccion-multifamiliares-cdmx;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-multifamiliares-cdmx;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-multifamiliares-cdmx;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-multifamiliares-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa Sembrando Parques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información del programa Sembrando Parques. Este programa es administrado por varias dependencias. En esta versión solo se muestran los datos correspondientes a la Secretaría de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/programa-sembrando-parques;
+    <t>Programa Sembrando Parques</t>
+  </si>
+  <si>
+    <t>Información del programa Sembrando Parques. Este programa es administrado por varias dependencias. En esta versión solo se muestran los datos correspondientes a la Secretaría de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/programa-sembrando-parques;
  https://datos.cdmx.gob.mx//dataset/programa-sembrando-parques;
  https://datos.cdmx.gob.mx//dataset/programa-sembrando-parques</t>
   </si>
   <si>
-    <t xml:space="preserve">Reconstrucción viviendas unifamiliares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los datos acerca de las unidades unifamiliares o casas dañadas por el sismo del 19 de septiembre de 2017. Incluye información sobre la ubicación...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/reconstruccion-viviendas-unifamiliares;
+    <t>Reconstrucción viviendas unifamiliares</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los datos acerca de las unidades unifamiliares o casas dañadas por el sismo del 19 de septiembre de 2017. Incluye información sobre la ubicación...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/reconstruccion-viviendas-unifamiliares;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-viviendas-unifamiliares;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-viviendas-unifamiliares;
  https://datos.cdmx.gob.mx//dataset/reconstruccion-viviendas-unifamiliares</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación de las unidades del Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de las unidades de Metrobús en tiempo real en la última hora. Para acceder al GTFS dinámico en tiempo real, solicita tu usuario en https://bit.ly/2KmGTRk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/prueba_fetchdata_metrobus;
+    <t>Ubicación de las unidades del Metrobús</t>
+  </si>
+  <si>
+    <t>Ubicación de las unidades de Metrobús en tiempo real en la última hora. Para acceder al GTFS dinámico en tiempo real, solicita tu usuario en https://bit.ly/2KmGTRk</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/prueba_fetchdata_metrobus;
  https://datos.cdmx.gob.mx/https://bit.ly/2KmGTRk;
  https://datos.cdmx.gob.mx//dataset/prueba_fetchdata_metrobus;
  https://datos.cdmx.gob.mx//dataset/prueba_fetchdata_metrobus</t>
   </si>
   <si>
-    <t xml:space="preserve">Recursos de la Ciudad transferidos a las Alcaldías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presupuesto que el Gobierno de la Ciudad asigna a las Alcaldías. Aquí podrás saber en qué y para qué gastan las Alcaldías estos recursos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/recursos-de-la-ciudad-transferidos-a-las-alcaldias;
+    <t>Recursos de la Ciudad transferidos a las Alcaldías</t>
+  </si>
+  <si>
+    <t>Presupuesto que el Gobierno de la Ciudad asigna a las Alcaldías. Aquí podrás saber en qué y para qué gastan las Alcaldías estos recursos.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/recursos-de-la-ciudad-transferidos-a-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/recursos-de-la-ciudad-transferidos-a-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/recursos-de-la-ciudad-transferidos-a-las-alcaldias;
  https://datos.cdmx.gob.mx//dataset/recursos-de-la-ciudad-transferidos-a-las-alcaldias</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicios de atención a violencia contra las mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directorio de servicios de atención a violencia contra las mujeres en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/servicios-de-atencion-a-violencia-contra-las-mujeres;
+    <t>Servicios de atención a violencia contra las mujeres</t>
+  </si>
+  <si>
+    <t>Directorio de servicios de atención a violencia contra las mujeres en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/servicios-de-atencion-a-violencia-contra-las-mujeres;
  https://datos.cdmx.gob.mx//dataset/servicios-de-atencion-a-violencia-contra-las-mujeres;
  https://datos.cdmx.gob.mx//dataset/servicios-de-atencion-a-violencia-contra-las-mujeres</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicios y sedes de la FGJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos muestra la infraestructura de la Fiscalía General de Justicia en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/servicios_y_sedes_fgj;
+    <t>Servicios y sedes de la FGJ</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos muestra la infraestructura de la Fiscalía General de Justicia en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/servicios_y_sedes_fgj;
  https://datos.cdmx.gob.mx//dataset/servicios_y_sedes_fgj;
  https://datos.cdmx.gob.mx//dataset/servicios_y_sedes_fgj</t>
   </si>
   <si>
-    <t xml:space="preserve">Refugios temporales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refugios temporales en caso de desastres en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/refugios;
+    <t>Refugios temporales</t>
+  </si>
+  <si>
+    <t>Refugios temporales en caso de desastres en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/refugios;
  https://datos.cdmx.gob.mx//dataset/refugios;
  https://datos.cdmx.gob.mx//dataset/refugios</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiraderos clandestinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta es la base de datos de tiraderos clandestinos al cierre de 2017 publicado por la Secretaría de Medio Ambiente. En esta base se pueden encontrar el identificador único del...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/tiraderos-clandestinos-al-cierre-de-2017;
+    <t>Tiraderos clandestinos</t>
+  </si>
+  <si>
+    <t>Esta es la base de datos de tiraderos clandestinos al cierre de 2017 publicado por la Secretaría de Medio Ambiente. En esta base se pueden encontrar el identificador único del...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/tiraderos-clandestinos-al-cierre-de-2017;
  https://datos.cdmx.gob.mx//dataset/tiraderos-clandestinos-al-cierre-de-2017;
  https://datos.cdmx.gob.mx//dataset/tiraderos-clandestinos-al-cierre-de-2017;
  https://datos.cdmx.gob.mx//dataset/tiraderos-clandestinos-al-cierre-de-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro Único de Situaciones de Emergencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los registros únicos de de situaciones de emergencia en la Ciudad de México. Para más información, consulta http://www.atlas.cdmx.gob.mx/RUSE/ La...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/registro-unico-de-situaciones-de-emergencia;
+    <t>6</t>
+  </si>
+  <si>
+    <t>Registro Único de Situaciones de Emergencia</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los registros únicos de de situaciones de emergencia en la Ciudad de México. Para más información, consulta http://www.atlas.cdmx.gob.mx/RUSE/ La...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/registro-unico-de-situaciones-de-emergencia;
  https://datos.cdmx.gob.mx/http://www.atlas.cdmx.gob.mx/RUSE/;
  https://datos.cdmx.gob.mx//dataset/registro-unico-de-situaciones-de-emergencia;
  https://datos.cdmx.gob.mx//dataset/registro-unico-de-situaciones-de-emergencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación de Centros de Transferencia Modal (CETRAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de los Centros de Transferencia Modal (CETRAM) con las líneas y rutas que transbordan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ubicacion-de-centros-de-transferencia-modal-cetram;
+    <t>Ubicación de Centros de Transferencia Modal (CETRAM)</t>
+  </si>
+  <si>
+    <t>Ubicación de los Centros de Transferencia Modal (CETRAM) con las líneas y rutas que transbordan.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ubicacion-de-centros-de-transferencia-modal-cetram;
  https://datos.cdmx.gob.mx//dataset/ubicacion-de-centros-de-transferencia-modal-cetram;
  https://datos.cdmx.gob.mx//dataset/ubicacion-de-centros-de-transferencia-modal-cetram</t>
   </si>
   <si>
-    <t xml:space="preserve">Vías primarias de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información de las vialidades de la Ciudad de México como su clasificación, nombre, velocidad permitida y sus límites territoriales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/vialidades-de-la-ciudad-de-mexico;
+    <t>Vías primarias de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información de las vialidades de la Ciudad de México como su clasificación, nombre, velocidad permitida y sus límites territoriales.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/vialidades-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/vialidades-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/vialidades-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Static GTFS CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTFS de la CDMX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/static_gtfs_cdmx;
+    <t>Static GTFS CDMX</t>
+  </si>
+  <si>
+    <t>GTFS de la CDMX.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/static_gtfs_cdmx;
  https://datos.cdmx.gob.mx//dataset/static_gtfs_cdmx;
  https://datos.cdmx.gob.mx//dataset/static_gtfs_cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Wifi de Barrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos se muestra el listado de sitios en los que se habilitará el servicio de WiFi gratuito, cuyo estatus se actualizará conforme se realice la activación de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/wifi-de-barrio;
+    <t>Wifi de Barrio</t>
+  </si>
+  <si>
+    <t>En esta base de datos se muestra el listado de sitios en los que se habilitará el servicio de WiFi gratuito, cuyo estatus se actualizará conforme se realice la activación de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/wifi-de-barrio;
  https://datos.cdmx.gob.mx//dataset/wifi-de-barrio;
  https://datos.cdmx.gob.mx//dataset/wifi-de-barrio;
  https://datos.cdmx.gob.mx//dataset/wifi-de-barrio;
  https://datos.cdmx.gob.mx//dataset/wifi-de-barrio</t>
   </si>
   <si>
-    <t xml:space="preserve">Zonas de patrullaje (cuadrantes) 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este es el Directorio de Zonas de Patrullaje vigente para 2018 y era usado en la App Mi Policía. Proyección NAD27 / UTM zone 14N. Esta base de datos está desactualizada....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/zonas-de-patrullaje-2018;
+    <t>Zonas de patrullaje (cuadrantes) 2018</t>
+  </si>
+  <si>
+    <t>Este es el Directorio de Zonas de Patrullaje vigente para 2018 y era usado en la App Mi Policía. Proyección NAD27 / UTM zone 14N. Esta base de datos está desactualizada....</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/zonas-de-patrullaje-2018;
  https://datos.cdmx.gob.mx//dataset/zonas-de-patrullaje-2018;
  https://datos.cdmx.gob.mx//dataset/zonas-de-patrullaje-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación C5 y C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación del Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano (C5) y Centros de Comando y Control (C2) de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ubicacion_c5_c2;
+    <t>Ubicación C5 y C2</t>
+  </si>
+  <si>
+    <t>Ubicación del Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano (C5) y Centros de Comando y Control (C2) de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ubicacion_c5_c2;
  https://datos.cdmx.gob.mx//dataset/ubicacion_c5_c2;
  https://datos.cdmx.gob.mx//dataset/ubicacion_c5_c2</t>
   </si>
   <si>
-    <t xml:space="preserve">Alcaldías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delimitación territorial de las 16 alcaldías de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/alcaldias;
+    <t>Alcaldías</t>
+  </si>
+  <si>
+    <t>Delimitación territorial de las 16 alcaldías de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/alcaldias;
  https://datos.cdmx.gob.mx//dataset/alcaldias;
  https://datos.cdmx.gob.mx//dataset/alcaldias</t>
   </si>
   <si>
-    <t xml:space="preserve">Contador ciclistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contador de ciclistas que circulan por las ciclovías de Reforma, Revolución y Patriotismo por día, mes y año desde 2013. Los espacios vacíos se deben a que no se cuentan con...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/contador-ciclistas;
+    <t>Contador ciclistas</t>
+  </si>
+  <si>
+    <t>Contador de ciclistas que circulan por las ciclovías de Reforma, Revolución y Patriotismo por día, mes y año desde 2013. Los espacios vacíos se deben a que no se cuentan con...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/contador-ciclistas;
  https://datos.cdmx.gob.mx//dataset/contador-ciclistas</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventario de medidas por contingencia COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra un listado de las medidas que ha puesto en marcha el Gobierno de la Ciudad de México y Alcaldías para atender la contingencia sanitaria de COVID-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/inventario-medidas-contingencia-covid19;
+    <t>Inventario de medidas por contingencia COVID-19</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra un listado de las medidas que ha puesto en marcha el Gobierno de la Ciudad de México y Alcaldías para atender la contingencia sanitaria de COVID-19.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/inventario-medidas-contingencia-covid19;
  https://datos.cdmx.gob.mx//dataset/inventario-medidas-contingencia-covid19;
  https://datos.cdmx.gob.mx//dataset/inventario-medidas-contingencia-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">Comedores Sociales que dan servicio durante crisis COVID 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los comedores sociales (públicos, comunitarios, emergentes y móviles) que operan durante la emergencia sanitaria por COVID 19. Cuentan con todos los...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/comedores-sociales-que-dan-servicio-durante-crisis-covid-19;
+    <t>Comedores Sociales que dan servicio durante crisis COVID 19</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los comedores sociales (públicos, comunitarios, emergentes y móviles) que operan durante la emergencia sanitaria por COVID 19. Cuentan con todos los...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/comedores-sociales-que-dan-servicio-durante-crisis-covid-19;
  https://datos.cdmx.gob.mx//dataset/comedores-sociales-que-dan-servicio-durante-crisis-covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación de puntos de acceso gratuito a internet WiFi vía infraestructura C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos se pueden consultar las ubicaciones de los postes del Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano (C5) de la Ciudad de México...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5;
+    <t>Ubicación de puntos de acceso gratuito a internet WiFi vía infraestructura C5</t>
+  </si>
+  <si>
+    <t>En esta base de datos se pueden consultar las ubicaciones de los postes del Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano (C5) de la Ciudad de México...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5;
  https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5;
  https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5;
  https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5;
  https://datos.cdmx.gob.mx//dataset/ubicacion-acceso-gratuito-internet-wifi-c5</t>
   </si>
   <si>
-    <t xml:space="preserve">Bases informativas LOCATEL: Circula CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La base contiene las dudas que se atienden respecto al programa Hoy no circula y el procedimiento de verificación de vehículos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/locatel-circula-cdmx;
+    <t>Bases informativas LOCATEL: Circula CDMX</t>
+  </si>
+  <si>
+    <t>La base contiene las dudas que se atienden respecto al programa Hoy no circula y el procedimiento de verificación de vehículos.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/locatel-circula-cdmx;
  https://datos.cdmx.gob.mx//dataset/locatel-circula-cdmx;
  https://datos.cdmx.gob.mx//dataset/locatel-circula-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Bases informativas LOCATEL: Línea de Capturas para Pago de Trámites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La base contiene los registros de atenciones donde se proporciona a la usuaria vía correo electrónico el sitio donde puede generar la línea de captura para pago de diversos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/locatel-linea-de-capturas-tramites;
+    <t>Bases informativas LOCATEL: Línea de Capturas para Pago de Trámites</t>
+  </si>
+  <si>
+    <t>La base contiene los registros de atenciones donde se proporciona a la usuaria vía correo electrónico el sitio donde puede generar la línea de captura para pago de diversos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/locatel-linea-de-capturas-tramites;
  https://datos.cdmx.gob.mx//dataset/locatel-linea-de-capturas-tramites;
  https://datos.cdmx.gob.mx//dataset/locatel-linea-de-capturas-tramites</t>
   </si>
   <si>
-    <t xml:space="preserve">Bases informativas LOCATEL: Trámites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La base contiene los registros de la información proporcionada respecto a dudas de diferentes trámites gubernamentales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/bases-informativas-locatel-tramites;
+    <t>Bases informativas LOCATEL: Trámites</t>
+  </si>
+  <si>
+    <t>La base contiene los registros de la información proporcionada respecto a dudas de diferentes trámites gubernamentales.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/bases-informativas-locatel-tramites;
  https://datos.cdmx.gob.mx//dataset/bases-informativas-locatel-tramites</t>
   </si>
   <si>
-    <t xml:space="preserve">Bases informativas LOCATEL: Boletines de Gobierno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La base contiene los registros de dudas atendidas respecto a ubicación y horarios de atención de instituciones de gobierno, programas de gobierno o avisos gubernamentales y...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/boletines-locatel-cdmx;
+    <t>Bases informativas LOCATEL: Boletines de Gobierno</t>
+  </si>
+  <si>
+    <t>La base contiene los registros de dudas atendidas respecto a ubicación y horarios de atención de instituciones de gobierno, programas de gobierno o avisos gubernamentales y...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/boletines-locatel-cdmx;
  https://datos.cdmx.gob.mx//dataset/boletines-locatel-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de suelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de suelo de la Ciudad de México por alcaldía, cuenta catastral, calle, número, colonia, código postal, superficie, clave de uso, tipo de uso, clave de densidad, densidad,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/uo-de-suelo;
+    <t>Uso de suelo</t>
+  </si>
+  <si>
+    <t>Uso de suelo de la Ciudad de México por alcaldía, cuenta catastral, calle, número, colonia, código postal, superficie, clave de uso, tipo de uso, clave de densidad, densidad,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/uo-de-suelo;
  https://datos.cdmx.gob.mx//dataset/uo-de-suelo</t>
   </si>
   <si>
-    <t xml:space="preserve">Llamadas número de atención a emergencias 911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra las llamadas al número de atención a emergencias 911 de 2019 a 2020. Para una correcta interpretación de los datos, sugerimos consultar el...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/llamadas-numero-de-atencion-a-emergencias-911;
+    <t>Llamadas número de atención a emergencias 911</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra las llamadas al número de atención a emergencias 911 de 2019 a 2020. Para una correcta interpretación de los datos, sugerimos consultar el...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/llamadas-numero-de-atencion-a-emergencias-911;
  https://datos.cdmx.gob.mx//dataset/llamadas-numero-de-atencion-a-emergencias-911;
  https://datos.cdmx.gob.mx//dataset/llamadas-numero-de-atencion-a-emergencias-911</t>
   </si>
   <si>
-    <t xml:space="preserve">Solicitudes y beneficiarios del Programa de Financiamiento para Microempresas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra el total de solicitudes al programa de Financiamiento para Microempresas del Fondo para el Desarrollo Social de la Ciudad de México (FONDESO)....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/solicitudes-financiamiento-microempresas;
+    <t>Solicitudes y beneficiarios del Programa de Financiamiento para Microempresas</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra el total de solicitudes al programa de Financiamiento para Microempresas del Fondo para el Desarrollo Social de la Ciudad de México (FONDESO)....</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/solicitudes-financiamiento-microempresas;
  https://datos.cdmx.gob.mx//dataset/solicitudes-financiamiento-microempresas;
  https://datos.cdmx.gob.mx//dataset/solicitudes-financiamiento-microempresas</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitios públicos con conexión gratuita de WIFI en la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listado y ubicación de sitios públicos que cuentan con WIFI gratuito en la Ciudad de México. Se actualiza todos los viernes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/sitios-publicos-wifi;
+    <t>Sitios públicos con conexión gratuita de WIFI en la CDMX</t>
+  </si>
+  <si>
+    <t>Listado y ubicación de sitios públicos que cuentan con WIFI gratuito en la Ciudad de México. Se actualiza todos los viernes.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/sitios-publicos-wifi;
  https://datos.cdmx.gob.mx//dataset/sitios-publicos-wifi;
  https://datos.cdmx.gob.mx//dataset/sitios-publicos-wifi;
  https://datos.cdmx.gob.mx//dataset/sitios-publicos-wifi</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kioscos de atención prioritaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los kioscos de atención prioritaria ante la emergencia por COVID-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/kioscos-atencion-covid;
+    <t>7</t>
+  </si>
+  <si>
+    <t>Kioscos de atención prioritaria</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los kioscos de atención prioritaria ante la emergencia por COVID-19.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/kioscos-atencion-covid;
  https://datos.cdmx.gob.mx//dataset/kioscos-atencion-covid</t>
   </si>
   <si>
-    <t xml:space="preserve">Deuda vigente de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos con la deuda vigente de la Ciudad de México. La información está desagregada por tipo de deuda, acreedor, inicio y fin del crédito, así como el pago de intereses y...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/deuda-de-la-ciudad;
+    <t>Deuda vigente de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Base de datos con la deuda vigente de la Ciudad de México. La información está desagregada por tipo de deuda, acreedor, inicio y fin del crédito, así como el pago de intereses y...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/deuda-de-la-ciudad;
  https://datos.cdmx.gob.mx//dataset/deuda-de-la-ciudad;
  https://datos.cdmx.gob.mx//dataset/deuda-de-la-ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidentes viales reportados por C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjunto de datos con los incidentes viales reportados por el Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano de la Ciudad de México (C5) desde 2014 y...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/incidentes-viales-c5;
+    <t>Incidentes viales reportados por C5</t>
+  </si>
+  <si>
+    <t>Conjunto de datos con los incidentes viales reportados por el Centro de Comando, Control, Cómputo, Comunicaciones y Contacto Ciudadano de la Ciudad de México (C5) desde 2014 y...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/incidentes-viales-c5;
  https://datos.cdmx.gob.mx//dataset/incidentes-viales-c5;
  https://datos.cdmx.gob.mx//dataset/incidentes-viales-c5</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas y rutas de transporte público en la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líneas y rutas de transporte público en la Ciudad de México. El archivo incluye los servicios de transporte público en la ciudad y su descripción vectorial (WKT) para... Publicador: SEMOVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lineas-rutas-transporte-publico-cdmx;
+    <t>Líneas y rutas de transporte público en la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Líneas y rutas de transporte público en la Ciudad de México. El archivo incluye los servicios de transporte público en la ciudad y su descripción vectorial (WKT) para... Publicador: SEMOVI</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lineas-rutas-transporte-publico-cdmx;
  https://datos.cdmx.gob.mx//dataset/lineas-rutas-transporte-publico-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Información Fotocívicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el segundo trimestre de 2019 el programa de fotoinfracciones en la Ciudad de México (Fotomultas) evolucionó al sistema de Fotocívicas, en el cual se reubicaron los...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/informacion-fotocivicas;
+    <t>Información Fotocívicas</t>
+  </si>
+  <si>
+    <t>En el segundo trimestre de 2019 el programa de fotoinfracciones en la Ciudad de México (Fotomultas) evolucionó al sistema de Fotocívicas, en el cual se reubicaron los...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/informacion-fotocivicas;
  https://datos.cdmx.gob.mx//dataset/informacion-fotocivicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Fotomultas (Ubicaciones)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene las ubicaciones de los dispositivos del Programa de Fotomultas, primer sistema de fotoinfracciones en la Ciudad de México. Inició operaciones en diciembre de 2015 y...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/fotomultas-ubicaciones;
+    <t>Fotomultas (Ubicaciones)</t>
+  </si>
+  <si>
+    <t>Contiene las ubicaciones de los dispositivos del Programa de Fotomultas, primer sistema de fotoinfracciones en la Ciudad de México. Inició operaciones en diciembre de 2015 y...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/fotomultas-ubicaciones;
  https://datos.cdmx.gob.mx//dataset/fotomultas-ubicaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Interrupción legal del embarazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base encontrarás información acerca de los procedimientos de interrupción legal del embarazo (ILE) que se realizaron en las clínicas y hospitales de la Secretaría de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/interrupcion-legal-del-embarazo;
+    <t>Interrupción legal del embarazo</t>
+  </si>
+  <si>
+    <t>En esta base encontrarás información acerca de los procedimientos de interrupción legal del embarazo (ILE) que se realizaron en las clínicas y hospitales de la Secretaría de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/interrupcion-legal-del-embarazo;
  https://datos.cdmx.gob.mx//dataset/interrupcion-legal-del-embarazo;
  https://datos.cdmx.gob.mx//dataset/interrupcion-legal-del-embarazo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación de unidades de vacunación COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos documenta las ubicaciones y fases del programa de vacunación para COVID-19 en la Ciudad de México. Dicha campaña comenzó el 15 de febrero de 2020...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ubicacion-de-unidades-de-vacunacion-covid-19;
+    <t>Ubicación de unidades de vacunación COVID-19</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos documenta las ubicaciones y fases del programa de vacunación para COVID-19 en la Ciudad de México. Dicha campaña comenzó el 15 de febrero de 2020...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ubicacion-de-unidades-de-vacunacion-covid-19;
  https://datos.cdmx.gob.mx//dataset/ubicacion-de-unidades-de-vacunacion-covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de afluencia total del Metro de la CDMX por semana y hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de afluencia total en el metro de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metro-de-la-cdmx-por-semana-y-hora;
+    <t>Índice de afluencia total del Metro de la CDMX por semana y hora</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de afluencia total en el metro de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metro-de-la-cdmx-por-semana-y-hora;
  https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metro-de-la-cdmx-por-semana-y-hora</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de afluencia promedio en las líneas del Metro de la CDMX por semana y ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de afluencia en el metro de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se considera...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-el-metro-de-la-cdmx-por-semana-y-hora;
+    <t>Índice de afluencia promedio en las líneas del Metro de la CDMX por semana y ...</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de afluencia en el metro de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se considera...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-el-metro-de-la-cdmx-por-semana-y-hora;
  https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-el-metro-de-la-cdmx-por-semana-y-hora</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Fracturas y grietas de suelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indice de vulnerabilidad de medio físico a fracturamiento del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-vulnerabilidad-social-a-fracturamiento;
+    <t>Atlas de riesgo - Fracturas y grietas de suelo</t>
+  </si>
+  <si>
+    <t>Indice de vulnerabilidad de medio físico a fracturamiento del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-vulnerabilidad-social-a-fracturamiento;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-vulnerabilidad-social-a-fracturamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguis de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos podrás encontrar la ubicación de los Tianguis de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/tianguis-de-la-ciudad-de-mexico;
+    <t>Tianguis de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>En esta base de datos podrás encontrar la ubicación de los Tianguis de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/tianguis-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/tianguis-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/tianguis-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/tianguis-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercados públicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los mercados públicos de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/mercados-publicos;
+    <t>Mercados públicos</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los mercados públicos de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/mercados-publicos;
  https://datos.cdmx.gob.mx//dataset/mercados-publicos;
  https://datos.cdmx.gob.mx//dataset/mercados-publicos;
  https://datos.cdmx.gob.mx//dataset/mercados-publicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Concentraciones de Comerciantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de las Concentraciones de Comerciantes en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes;
+    <t>Concentraciones de Comerciantes</t>
+  </si>
+  <si>
+    <t>Ubicación de las Concentraciones de Comerciantes en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes;
  https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes;
  https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes;
  https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes;
  https://datos.cdmx.gob.mx//dataset/concentraciones-de-comerciantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercados sobre ruedas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de los mercados sobre ruedas de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/mercados-sobre-ruedas;
+    <t>Mercados sobre ruedas</t>
+  </si>
+  <si>
+    <t>Ubicación de los mercados sobre ruedas de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/mercados-sobre-ruedas;
  https://datos.cdmx.gob.mx//dataset/mercados-sobre-ruedas;
  https://datos.cdmx.gob.mx//dataset/mercados-sobre-ruedas;
  https://datos.cdmx.gob.mx//dataset/mercados-sobre-ruedas</t>
   </si>
   <si>
-    <t xml:space="preserve">Acciones Sociales vigentes en la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Política de Desarrollo Social en la Ciudad de México es aquella que realiza el Gobierno de la Ciudad de México, destinada al conjunto de sus habitantes con el propósito de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/acciones-sociales-vigentes-en-la-ciudad-de-mexico;
+    <t>Acciones Sociales vigentes en la Ciudad de México</t>
+  </si>
+  <si>
+    <t>La Política de Desarrollo Social en la Ciudad de México es aquella que realiza el Gobierno de la Ciudad de México, destinada al conjunto de sus habitantes con el propósito de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/acciones-sociales-vigentes-en-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/acciones-sociales-vigentes-en-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/acciones-sociales-vigentes-en-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Catálogo de datos abiertos de la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos presenta un catálogo de los datos publicados por la Agencia Digital de Innovación Pública (ADIP) en el Portal de Datos Abiertos de la Ciudad de México. Se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/domaindatasets;
+    <t>Catálogo de datos abiertos de la CDMX</t>
+  </si>
+  <si>
+    <t>Esta base de datos presenta un catálogo de los datos publicados por la Agencia Digital de Innovación Pública (ADIP) en el Portal de Datos Abiertos de la Ciudad de México. Se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/domaindatasets;
  https://datos.cdmx.gob.mx//dataset/domaindatasets</t>
   </si>
   <si>
-    <t xml:space="preserve">Convocatorias de compras públicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base encontrarás la información relacionada con las convocatorias de contrataciones públicas de las alcaldías y entidades de la Administración Pública de la Ciudad de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/convocatorias-de-compras-publicas;
+    <t>Convocatorias de compras públicas</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/convocatorias-de-compras-publicas;
  https://datos.cdmx.gob.mx//dataset/convocatorias-de-compras-publicas;
  https://datos.cdmx.gob.mx//dataset/convocatorias-de-compras-publicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Proyectos financiados con recursos federales transferidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene información de los programas y proyectos de inversión que realiza la Ciudad de México con recursos que le transfiere la Federación a través de aportaciones federales,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/recursos-federales-transferidos;
+    <t>Proyectos financiados con recursos federales transferidos</t>
+  </si>
+  <si>
+    <t>Contiene información de los programas y proyectos de inversión que realiza la Ciudad de México con recursos que le transfiere la Federación a través de aportaciones federales,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/recursos-federales-transferidos;
  https://datos.cdmx.gob.mx//dataset/recursos-federales-transferidos;
  https://datos.cdmx.gob.mx//dataset/recursos-federales-transferidos;
  https://datos.cdmx.gob.mx//dataset/recursos-federales-transferidos</t>
   </si>
   <si>
-    <t xml:space="preserve">Verificación automotriz - segundo semestre 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar las verificaciones vehiculares realizadas y los resultados obtenidos durante segundo semestre de 2018.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/verificacion-automotriz-segundo-semestre-2018;
+    <t>Verificación automotriz - segundo semestre 2018</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar las verificaciones vehiculares realizadas y los resultados obtenidos durante segundo semestre de 2018.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/verificacion-automotriz-segundo-semestre-2018;
  https://datos.cdmx.gob.mx//dataset/verificacion-automotriz-segundo-semestre-2018;
  https://datos.cdmx.gob.mx//dataset/verificacion-automotriz-segundo-semestre-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluencia promedio del Ferrocarril Suburbano por hora y semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de afluencia promedio del Ferrocarril Suburbano en los días martes, miércoles y jueves a partir de la semana 22 de 2020, así como el...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/afluencia-promedio-del-ferrocarril-suburbano-por-hora-y-semana;
+    <t>8</t>
+  </si>
+  <si>
+    <t>Afluencia promedio del Ferrocarril Suburbano por hora y semana</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de afluencia promedio del Ferrocarril Suburbano en los días martes, miércoles y jueves a partir de la semana 22 de 2020, así como el...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/afluencia-promedio-del-ferrocarril-suburbano-por-hora-y-semana;
  https://datos.cdmx.gob.mx//dataset/afluencia-promedio-del-ferrocarril-suburbano-por-hora-y-semana</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlas de riesgo - Susceptibilidad por laderas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de susceptibilidad por laderas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-susceptibilidad-por-laderas;
+    <t>Atlas de riesgo - Susceptibilidad por laderas</t>
+  </si>
+  <si>
+    <t>Indicador de susceptibilidad por laderas del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-susceptibilidad-por-laderas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-susceptibilidad-por-laderas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-susceptibilidad-por-laderas;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-susceptibilidad-por-laderas</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de pueblos y barrios originarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información contenida en este conjunto de datos corresponde al Padrón de Beneficiarios del Programa de Programa de Fortalecimiento y Apoyo a Pueblos Originarios (FAPO) de la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-pueblos-y-barrios-originarios;
+    <t>Padrón de pueblos y barrios originarios</t>
+  </si>
+  <si>
+    <t>La información contenida en este conjunto de datos corresponde al Padrón de Beneficiarios del Programa de Programa de Fortalecimiento y Apoyo a Pueblos Originarios (FAPO) de la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-pueblos-y-barrios-originarios;
  https://datos.cdmx.gob.mx//dataset/padron-de-pueblos-y-barrios-originarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Personas hospitalizadas por día por COVID-19 (archivo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATENCIÓN Esta base de datos se dejó de actualizar el 8 de enero de 2019. La base de datos que incluye información de todos los hospitales de la ZMVM la puede ser consultada...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-covid19;
+    <t>Personas hospitalizadas por día por COVID-19 (archivo)</t>
+  </si>
+  <si>
+    <t>ATENCIÓN Esta base de datos se dejó de actualizar el 8 de enero de 2019. La base de datos que incluye información de todos los hospitales de la ZMVM la puede ser consultada...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-covid19;
  https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-covid19;
  https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-covid19;
  https://datos.cdmx.gob.mx//dataset/personas-hospitalizadas-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de Directores Responsables de Obra y Corresponsables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padrón de Directores Responsables de Obra y Corresponsables (DROs) que incluye nombre, apellidos, fecha de vigencia, tipo de identificación, descripción del DRO, número de DRO,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-directores-responsables-de-obra-y-corresponsables;
+    <t>Padrón de Directores Responsables de Obra y Corresponsables</t>
+  </si>
+  <si>
+    <t>Padrón de Directores Responsables de Obra y Corresponsables (DROs) que incluye nombre, apellidos, fecha de vigencia, tipo de identificación, descripción del DRO, número de DRO,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-directores-responsables-de-obra-y-corresponsables;
  https://datos.cdmx.gob.mx//dataset/padron-de-directores-responsables-de-obra-y-corresponsables</t>
   </si>
   <si>
-    <t xml:space="preserve">Solicitudes y derechohabientes al programa Seguro de Desempleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos con las solicitudes al programa de Seguro de desempleo desagregado por ubicación del solicitante, dependientes económicos, discapacidad, grado de estudios,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/solicitudes-seguro-de-desempleo;
+    <t>Solicitudes y derechohabientes al programa Seguro de Desempleo</t>
+  </si>
+  <si>
+    <t>Base de datos con las solicitudes al programa de Seguro de desempleo desagregado por ubicación del solicitante, dependientes económicos, discapacidad, grado de estudios,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/solicitudes-seguro-de-desempleo;
  https://datos.cdmx.gob.mx//dataset/solicitudes-seguro-de-desempleo;
  https://datos.cdmx.gob.mx//dataset/solicitudes-seguro-de-desempleo</t>
   </si>
   <si>
-    <t xml:space="preserve">Centros de acopio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa de los centros de acopio que se habilitan en casos de emergencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/centros_acopio;
+    <t>Centros de acopio</t>
+  </si>
+  <si>
+    <t>Mapa de los centros de acopio que se habilitan en casos de emergencia.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/centros_acopio;
  https://datos.cdmx.gob.mx//dataset/centros_acopio</t>
   </si>
   <si>
-    <t xml:space="preserve">LUNAS servicios de asesoría para las mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar la ubicación y datos de contacto de las LUNAS de la Secretaría de las Mujeres de la Ciudad de México, donde se brinda la atención a mujeres en...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lunas;
+    <t>LUNAS servicios de asesoría para las mujeres</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar la ubicación y datos de contacto de las LUNAS de la Secretaría de las Mujeres de la Ciudad de México, donde se brinda la atención a mujeres en...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lunas;
  https://datos.cdmx.gob.mx//dataset/lunas</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de afluencia total del Metrobús de la CDMX por semana y hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de afluencia total en el metrobús de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metrobus-de-la-cdmx-por-semana-y-hora;
+    <t>Índice de afluencia total del Metrobús de la CDMX por semana y hora</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de afluencia total en el metrobús de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metrobus-de-la-cdmx-por-semana-y-hora;
  https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-total-del-metrobus-de-la-cdmx-por-semana-y-hora</t>
   </si>
   <si>
-    <t xml:space="preserve">Consumo de agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información bimestral por el concepto de suministro de agua a nivel manzana, considerando la facturación por servicio de consumo medido y promedio. Recomendamos consultar la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/consumo-agua;
+    <t>Consumo de agua</t>
+  </si>
+  <si>
+    <t>Información bimestral por el concepto de suministro de agua a nivel manzana, considerando la facturación por servicio de consumo medido y promedio. Recomendamos consultar la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/consumo-agua;
  https://datos.cdmx.gob.mx//dataset/consumo-agua;
  https://datos.cdmx.gob.mx//dataset/consumo-agua</t>
   </si>
   <si>
-    <t xml:space="preserve">Casos a nivel nacional asociados a covid-19 para la CDMX – TMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19-support;
+    <t>Casos a nivel nacional asociados a covid-19 para la CDMX – TMP</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19-support;
  https://datos.cdmx.gob.mx//dataset/casos-asociados-a-covid-19-support</t>
   </si>
   <si>
-    <t xml:space="preserve">Corridas de origen por centrales de autobuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra las corridas de origen por centrales de autobuses de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/corridas-de-origen-por-centrales-de-autobuses;
+    <t>Corridas de origen por centrales de autobuses</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra las corridas de origen por centrales de autobuses de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/corridas-de-origen-por-centrales-de-autobuses;
  https://datos.cdmx.gob.mx//dataset/corridas-de-origen-por-centrales-de-autobuses</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa de Cuadrantes - estructura y estado de fuerza inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información relevante acerca del Programa de Cuadrantes - estructura y estado de fuerza inicial. Fuente: Subsecretaría de Operación Policial,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/programa-de-cuadrantes-estructura-y-estado-de-fuerza-inicial;
+    <t>Programa de Cuadrantes - estructura y estado de fuerza inicial</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información relevante acerca del Programa de Cuadrantes - estructura y estado de fuerza inicial. Fuente: Subsecretaría de Operación Policial,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/programa-de-cuadrantes-estructura-y-estado-de-fuerza-inicial;
  https://datos.cdmx.gob.mx//dataset/programa-de-cuadrantes-estructura-y-estado-de-fuerza-inicial</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa de detección y aislamiento de casos en colonias de atención priorita...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las colonias de atención prioritarias concentran el 33 por ciento de los contagios por COVID-19 en la ciudad, por ello se disminuyen actividades, y a través de apoyos médicos,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/colonias-de-atencion-prioritaria-covid-kioscos;
+    <t>Programa de detección y aislamiento de casos en colonias de atención priorita...</t>
+  </si>
+  <si>
+    <t>Las colonias de atención prioritarias concentran el 33 por ciento de los contagios por COVID-19 en la ciudad, por ello se disminuyen actividades, y a través de apoyos médicos,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/colonias-de-atencion-prioritaria-covid-kioscos;
  https://datos.cdmx.gob.mx//dataset/colonias-de-atencion-prioritaria-covid-kioscos</t>
   </si>
   <si>
-    <t xml:space="preserve">Propuestas ciudadanas para el Plan Integral de Seguridad Vial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propuestas ciudadanas de problemáticas para el Plan Integral de Seguridad Vial (PISVI) en la Plataforma Digital del Gobierno de la Ciudad "Plaza Pública". Las propuestas se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-el-plan-integral-de-seguridad-vial;
+    <t>Propuestas ciudadanas para el Plan Integral de Seguridad Vial</t>
+  </si>
+  <si>
+    <t>Propuestas ciudadanas de problemáticas para el Plan Integral de Seguridad Vial (PISVI) en la Plataforma Digital del Gobierno de la Ciudad "Plaza Pública". Las propuestas se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-el-plan-integral-de-seguridad-vial;
  https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-el-plan-integral-de-seguridad-vial;
  https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-el-plan-integral-de-seguridad-vial</t>
   </si>
   <si>
-    <t xml:space="preserve">Parquímetros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/prueba-parquimetros;
+    <t>Parquímetros</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/prueba-parquimetros;
  https://datos.cdmx.gob.mx//dataset/prueba-parquimetros</t>
   </si>
   <si>
-    <t xml:space="preserve">Educación - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Este indicador da cuenta de la adecuación o carencia del...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_educacion;
+    <t>Educación - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Este indicador da cuenta de la adecuación o carencia del...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_educacion;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_educacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema Informático para la Gestión de Anuncios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema Informático para la Gestión de Anuncios con código, dirección, estatus, tipo, colonia, alcaldía, empresa. Nota: Esta base de datos está en proceso de actualización por...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/sistema-informatico-para-la-gestion-de-anuncios;
+    <t>Sistema Informático para la Gestión de Anuncios</t>
+  </si>
+  <si>
+    <t>Sistema Informático para la Gestión de Anuncios con código, dirección, estatus, tipo, colonia, alcaldía, empresa. Nota: Esta base de datos está en proceso de actualización por...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/sistema-informatico-para-la-gestion-de-anuncios;
  https://datos.cdmx.gob.mx//dataset/sistema-informatico-para-la-gestion-de-anuncios</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto Federalizado en Obra 3Trimestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand in: Sólo está disponible si el conjunto de datos tiene un campo de punto geográfico. El área geográfica se definirá como el contenedor más pequeño de todas las ubicaciones...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/gasto-federalizado-en-obra-3trimestre;
+    <t>Gasto Federalizado en Obra 3Trimestre</t>
+  </si>
+  <si>
+    <t>Stand in: Sólo está disponible si el conjunto de datos tiene un campo de punto geográfico. El área geográfica se definirá como el contenedor más pequeño de todas las ubicaciones...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/gasto-federalizado-en-obra-3trimestre;
  https://datos.cdmx.gob.mx//dataset/gasto-federalizado-en-obra-3trimestre</t>
   </si>
   <si>
-    <t xml:space="preserve">Programas Sociales vigentes en la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene la información más relevante sobre los 144 Programas sociales que operan durante 2020 en la Ciudad de México. Los datos provienen de la información...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/programas-sociales-vigentes-en-la-cdmx;
+    <t>Programas Sociales vigentes en la CDMX</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene la información más relevante sobre los 144 Programas sociales que operan durante 2020 en la Ciudad de México. Los datos provienen de la información...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/programas-sociales-vigentes-en-la-cdmx;
  https://datos.cdmx.gob.mx//dataset/programas-sociales-vigentes-en-la-cdmx;
  https://datos.cdmx.gob.mx//dataset/programas-sociales-vigentes-en-la-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carpetas de investigación PGJ de la Ciudad de México (archivo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos contiene las Carpetas de investigación de delitos a nivel de calle de la Procuraduría General de Justicia de la Ciudad de México desde enero de 2016 hasta...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-pgj-cdmx;
+    <t>9</t>
+  </si>
+  <si>
+    <t>Carpetas de investigación PGJ de la Ciudad de México (archivo)</t>
+  </si>
+  <si>
+    <t>Esta base de datos contiene las Carpetas de investigación de delitos a nivel de calle de la Procuraduría General de Justicia de la Ciudad de México desde enero de 2016 hasta...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-pgj-cdmx;
  https://datos.cdmx.gob.mx//dataset/carpetas-de-investigacion-pgj-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Consulta Línea 3 Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados de la Consulta sobre la Línea 3 del Metrobús, realizados del 18 al 23 de noviembre de 2019 en el portal web Plaza Pública. Es posible consultar dicho proceso en esta...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/participaciones_consulta_linea3-export;
+    <t>Consulta Línea 3 Metrobús</t>
+  </si>
+  <si>
+    <t>Resultados de la Consulta sobre la Línea 3 del Metrobús, realizados del 18 al 23 de noviembre de 2019 en el portal web Plaza Pública. Es posible consultar dicho proceso en esta...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/participaciones_consulta_linea3-export;
  https://datos.cdmx.gob.mx//dataset/participaciones_consulta_linea3-export</t>
   </si>
   <si>
-    <t xml:space="preserve">Suelo de conservación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar la información acerca del suelo de conservación en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/suelo-de-conservacion;
+    <t>Suelo de conservación</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar la información acerca del suelo de conservación en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/suelo-de-conservacion;
  https://datos.cdmx.gob.mx//dataset/suelo-de-conservacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Polígonos Concesionarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/poligonos-concesionarios;
+    <t>Polígonos Concesionarios</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/poligonos-concesionarios;
  https://datos.cdmx.gob.mx//dataset/poligonos-concesionarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Energía - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. La electricidad, así como el combustible para preparar o calentar...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_energia;
+    <t>Energía - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. La electricidad, así como el combustible para preparar o calentar...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_energia;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_energia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresos Parquímetros 2019 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2019-1;
+    <t>Ingresos Parquímetros 2019 - 1</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2019-1;
  https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2019-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Códigos Postales de la CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los códigos postales de la CDMX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/codigos-postales-de-la-cdmx;
+    <t>Códigos Postales de la CDMX</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los códigos postales de la CDMX.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/codigos-postales-de-la-cdmx;
  https://datos.cdmx.gob.mx//dataset/codigos-postales-de-la-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Telefonía - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El indicador de carencia de servicio telefónico se calcula a...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/telefonia-indice-de-desarrollo-social-en-la-ciudad;
+    <t>Telefonía - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El indicador de carencia de servicio telefónico se calcula a...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/telefonia-indice-de-desarrollo-social-en-la-ciudad;
  https://datos.cdmx.gob.mx//dataset/telefonia-indice-de-desarrollo-social-en-la-ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas y Estaciones del Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metrobus;
+    <t>Líneas y Estaciones del Metrobús</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metrobus;
  https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metrobus</t>
   </si>
   <si>
-    <t xml:space="preserve">Área de operación de bicicletas 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base encontrarás las áreas de la ciudad en las que operan los sistemas de bicicletas compartidas sin anclaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-bicicletas;
+    <t>Área de operación de bicicletas 2019</t>
+  </si>
+  <si>
+    <t>En esta base encontrarás las áreas de la ciudad en las que operan los sistemas de bicicletas compartidas sin anclaje</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-bicicletas;
  https://datos.cdmx.gob.mx//dataset/area-de-operacion-de-bicicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspecciones de trabajo realizadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base encontrarás información acerca de las inspecciones de trabajo realizadas por la Secretaría de Trabajo y Fomento al Empleo de la Ciudad de México y los resultados...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/inspecciones-de-trabajo-realizadas;
+    <t>Inspecciones de trabajo realizadas</t>
+  </si>
+  <si>
+    <t>En esta base encontrarás información acerca de las inspecciones de trabajo realizadas por la Secretaría de Trabajo y Fomento al Empleo de la Ciudad de México y los resultados...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/inspecciones-de-trabajo-realizadas;
  https://datos.cdmx.gob.mx//dataset/inspecciones-de-trabajo-realizadas;
  https://datos.cdmx.gob.mx//dataset/inspecciones-de-trabajo-realizadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Adecuación Sanitaria - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Tiene como objetivo reportar el grado de carencia o satisfacción...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_adec_san;
+    <t>Adecuación Sanitaria - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Tiene como objetivo reportar el grado de carencia o satisfacción...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_adec_san;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_adec_san</t>
   </si>
   <si>
-    <t xml:space="preserve">Rally ¿Cómo van las obras?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/rally-como-van-las-obras-cdmx;
+    <t>Rally ¿Cómo van las obras?</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/rally-como-van-las-obras-cdmx;
  https://datos.cdmx.gob.mx//dataset/rally-como-van-las-obras-cdmx;
  https://datos.cdmx.gob.mx//dataset/rally-como-van-las-obras-cdmx;
  https://datos.cdmx.gob.mx//dataset/rally-como-van-las-obras-cdmx</t>
   </si>
   <si>
-    <t xml:space="preserve">Catálogo de sismos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar el catálogo de sismos con epicentro en la Ciudad de México desde 1990.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/catalogo-de-sismos;
+    <t>Catálogo de sismos</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar el catálogo de sismos con epicentro en la Ciudad de México desde 1990.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/catalogo-de-sismos;
  https://datos.cdmx.gob.mx//dataset/catalogo-de-sismos</t>
   </si>
   <si>
-    <t xml:space="preserve">Hechos de tránsito registrados por la SSC (serie de datos ampliada, no compar...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**En esta base podrás encontrar los hechos de tránsito registrados por la Secretaría de Seguridad Ciudadana a partir de 2018. Entre otras variables, incluye la fecha del evento,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-ampliada-no-comparativa;
+    <t>Hechos de tránsito registrados por la SSC (serie de datos ampliada, no compar...</t>
+  </si>
+  <si>
+    <t>**En esta base podrás encontrar los hechos de tránsito registrados por la Secretaría de Seguridad Ciudadana a partir de 2018. Entre otras variables, incluye la fecha del evento,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-ampliada-no-comparativa;
  https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-ampliada-no-comparativa;
  https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-ampliada-no-comparativa</t>
   </si>
   <si>
-    <t xml:space="preserve">Calidad del aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información de la calidad del aire en las alcaldías. El cálculo del promedio de 24 horas se realiza de la hora 1 a la 24 para más información al respecto, revisa la nota...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/prueba_datos_calidad_aire;
+    <t>Calidad del aire</t>
+  </si>
+  <si>
+    <t>Información de la calidad del aire en las alcaldías. El cálculo del promedio de 24 horas se realiza de la hora 1 a la 24 para más información al respecto, revisa la nota...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/prueba_datos_calidad_aire;
  https://datos.cdmx.gob.mx//dataset/prueba_datos_calidad_aire;
  https://datos.cdmx.gob.mx//dataset/prueba_datos_calidad_aire</t>
   </si>
   <si>
-    <t xml:space="preserve">Plan de Apertura 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos corresponde al Plan de Apertura 2020, la cual consiste en comunicar y dar seguimiento a aquellos conjuntos de datos que se podrán a disposición de la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/plan-de-apertura-2020;
+    <t>Plan de Apertura 2020</t>
+  </si>
+  <si>
+    <t>Esta base de datos corresponde al Plan de Apertura 2020, la cual consiste en comunicar y dar seguimiento a aquellos conjuntos de datos que se podrán a disposición de la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/plan-de-apertura-2020;
  https://datos.cdmx.gob.mx//dataset/plan-de-apertura-2020;
  https://datos.cdmx.gob.mx//dataset/plan-de-apertura-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto ejercido por el Fideicomiso para la Reconstrucción de la Ciudad de Méxi...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos cuenta con información del gasto ejercido por el Fideicomiso para la Reconstrucción. Se muestran las siguientes variables: año de ejercicio, acuerdo,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/gasto-ejercido-por-el-fideicomiso-para-la-reconstruccion-de-la-ciudad-de-mexico-;
+    <t>Gasto ejercido por el Fideicomiso para la Reconstrucción de la Ciudad de Méxi...</t>
+  </si>
+  <si>
+    <t>Esta base de datos cuenta con información del gasto ejercido por el Fideicomiso para la Reconstrucción. Se muestran las siguientes variables: año de ejercicio, acuerdo,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/gasto-ejercido-por-el-fideicomiso-para-la-reconstruccion-de-la-ciudad-de-mexico-;
  https://datos.cdmx.gob.mx//dataset/gasto-ejercido-por-el-fideicomiso-para-la-reconstruccion-de-la-ciudad-de-mexico-</t>
   </si>
   <si>
-    <t xml:space="preserve">Áreas verdes de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base encontrarás las áreas verdes localizadas en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/cdmx_areas_verdes_2017;
+    <t>Áreas verdes de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>En esta base encontrarás las áreas verdes localizadas en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/cdmx_areas_verdes_2017;
  https://datos.cdmx.gob.mx//dataset/cdmx_areas_verdes_2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa Reto Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/programa-reto-verde;
+    <t>Programa Reto Verde</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/programa-reto-verde;
  https://datos.cdmx.gob.mx//dataset/programa-reto-verde</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguridad Social - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El indicador que denota la adecuación a la seguridad social se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/seguridad-social-indice-de-desarrollo-social-en-la-ciudad;
+    <t>10</t>
+  </si>
+  <si>
+    <t>Seguridad Social - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El indicador que denota la adecuación a la seguridad social se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/seguridad-social-indice-de-desarrollo-social-en-la-ciudad;
  https://datos.cdmx.gob.mx//dataset/seguridad-social-indice-de-desarrollo-social-en-la-ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Tránsito vehicular promedio en las vías de cuota de la CDMX por hora y semana...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de tránsito vehicular en las vías de cuota de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana;
+    <t>Tránsito vehicular promedio en las vías de cuota de la CDMX por hora y semana...</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de tránsito vehicular en las vías de cuota de la CDMX promedio en los días martes, miércoles y jueves a partir de la semana 10 de 2020,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana;
  https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana</t>
   </si>
   <si>
-    <t xml:space="preserve">NBI - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A partir de los resultados en los ocho indicadores usados por Evalúa para medir el desarrollo social en la CDMX, se obtiene un índice global de Niveles Básicos Insatisfechos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_nbi;
+    <t>NBI - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>A partir de los resultados en los ocho indicadores usados por Evalúa para medir el desarrollo social en la CDMX, se obtiene un índice global de Niveles Básicos Insatisfechos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_nbi;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_nbi</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresos Parquimetros 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2017;
+    <t>Ingresos Parquimetros 2017</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2017;
  https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Biciestacionamientos masivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación de los biciestacionamientos masivos en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/biciestacionamientos-masivos;
+    <t>Biciestacionamientos masivos</t>
+  </si>
+  <si>
+    <t>Ubicación de los biciestacionamientos masivos en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/biciestacionamientos-masivos;
  https://datos.cdmx.gob.mx//dataset/biciestacionamientos-masivos</t>
   </si>
   <si>
-    <t xml:space="preserve">Resultados del censo y de la validación de la Comisión para la Reconstrucción...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta tabla te permitirá explorar, consultar y descargar información sobre el Resultado del censo y validación de la comisión para la reconstrucción de los imnuebles dañados en...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/resultados-del-censo-y-de-la-validacion-de-la-comision-para-la-reconstruccion-de;
+    <t>Resultados del censo y de la validación de la Comisión para la Reconstrucción...</t>
+  </si>
+  <si>
+    <t>Esta tabla te permitirá explorar, consultar y descargar información sobre el Resultado del censo y validación de la comisión para la reconstrucción de los imnuebles dañados en...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/resultados-del-censo-y-de-la-validacion-de-la-comision-para-la-reconstruccion-de;
  https://datos.cdmx.gob.mx//dataset/resultados-del-censo-y-de-la-validacion-de-la-comision-para-la-reconstruccion-de</t>
   </si>
   <si>
-    <t xml:space="preserve">Propuestas Feria de Chapultepec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propuestas de la ciudadanía a favor y en contra de mantener la Feria de Chapultepec en Plaza pública.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/propuestas-feria-de-chapultepec;
+    <t>Propuestas Feria de Chapultepec</t>
+  </si>
+  <si>
+    <t>Propuestas de la ciudadanía a favor y en contra de mantener la Feria de Chapultepec en Plaza pública.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/propuestas-feria-de-chapultepec;
  https://datos.cdmx.gob.mx//dataset/propuestas-feria-de-chapultepec</t>
   </si>
   <si>
-    <t xml:space="preserve">Hechos de tránsito registrados por la SSC (serie para comparaciones interanua...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar los hechos de tránsito registrados por la Secretaría de Seguridad Ciudadana a partir de 2018. Entre otras variables, incluye la fecha del evento,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-comparativa;
+    <t>Hechos de tránsito registrados por la SSC (serie para comparaciones interanua...</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar los hechos de tránsito registrados por la Secretaría de Seguridad Ciudadana a partir de 2018. Entre otras variables, incluye la fecha del evento,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-comparativa;
  https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-comparativa;
  https://datos.cdmx.gob.mx//dataset/hechos-de-transito-reportados-por-ssc-base-comparativa</t>
   </si>
   <si>
-    <t xml:space="preserve">Salud - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El concepto a medir es el acceso adecuado a servicios de salud por...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_salud;
+    <t>Salud - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. El concepto a medir es el acceso adecuado a servicios de salud por...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_salud;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_salud</t>
   </si>
   <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de tránsito vehicular en las vías de cuota de la CDMX promedio en los días sábados y domingos a partir de la semana 10 de 2020, que se...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana-fi;
+    <t>Este conjunto de datos contiene el índice de tránsito vehicular en las vías de cuota de la CDMX promedio en los días sábados y domingos a partir de la semana 10 de 2020, que se...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana-fi;
  https://datos.cdmx.gob.mx//dataset/transito-vehicular-promedio-en-las-vias-de-cuota-de-la-cdmx-por-hora-y-semana-fi</t>
   </si>
   <si>
-    <t xml:space="preserve">Declaraciones de interés Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este conjunto de datos se presentan en formato de datos abiertos las declaraciones de intereses de las personas servidoras públicas que publicaron sus 3de3 en el siguiente...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/declaraciones-de-interes-ciudad-de-mexico;
+    <t>Declaraciones de interés Ciudad de México</t>
+  </si>
+  <si>
+    <t>En este conjunto de datos se presentan en formato de datos abiertos las declaraciones de intereses de las personas servidoras públicas que publicaron sus 3de3 en el siguiente...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/declaraciones-de-interes-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/declaraciones-de-interes-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresos Parquímetros 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingreso obtenido por los parquímetros durante 2018 por polígono y colonia en la que se ubican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2018;
+    <t>Ingresos Parquímetros 2018</t>
+  </si>
+  <si>
+    <t>Ingreso obtenido por los parquímetros durante 2018 por polígono y colonia en la que se ubican</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2018;
  https://datos.cdmx.gob.mx//dataset/ingresos-parquimetros-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasajeros transportados por centrales de autobuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra el número total de pasajeros transportados por centrales de autobuses de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/pasajeros-transportados-por-centrales-de-autobuses;
+    <t>Pasajeros transportados por centrales de autobuses</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra el número total de pasajeros transportados por centrales de autobuses de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/pasajeros-transportados-por-centrales-de-autobuses;
  https://datos.cdmx.gob.mx//dataset/pasajeros-transportados-por-centrales-de-autobuses</t>
   </si>
   <si>
-    <t xml:space="preserve">Contratos adjudicados por COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base de datos se encuentra la información de los contratos adjudicados por los diferentes entes del Gobierno de la Ciudad de México para atender la emergencia sanitaria...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/contratos-adjudicados-covid19;
+    <t>Contratos adjudicados por COVID-19</t>
+  </si>
+  <si>
+    <t>En esta base de datos se encuentra la información de los contratos adjudicados por los diferentes entes del Gobierno de la Ciudad de México para atender la emergencia sanitaria...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/contratos-adjudicados-covid19;
  https://datos.cdmx.gob.mx//dataset/contratos-adjudicados-covid19;
  https://datos.cdmx.gob.mx//dataset/contratos-adjudicados-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">Encuesta sobre limpieza del Centro Histórico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/encuesta-sobre-limpieza-del-centro-historico;
+    <t>Encuesta sobre limpieza del Centro Histórico</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/encuesta-sobre-limpieza-del-centro-historico;
  https://datos.cdmx.gob.mx//dataset/encuesta-sobre-limpieza-del-centro-historico</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnóstico sobre la Ciudad en el Mundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respuestas de las y los habitantes sobre su percepción de la actividad internacional de la Ciudad. Encuesta en Plaza Pública realizada por la Coordinación de Asuntos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-sobre-la-ciudad-en-el-mundo;
+    <t>Diagnóstico sobre la Ciudad en el Mundo</t>
+  </si>
+  <si>
+    <t>Respuestas de las y los habitantes sobre su percepción de la actividad internacional de la Ciudad. Encuesta en Plaza Pública realizada por la Coordinación de Asuntos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-sobre-la-ciudad-en-el-mundo;
  https://datos.cdmx.gob.mx//dataset/diagnostico-sobre-la-ciudad-en-el-mundo;
  https://datos.cdmx.gob.mx//dataset/diagnostico-sobre-la-ciudad-en-el-mundo</t>
   </si>
   <si>
-    <t xml:space="preserve">Declaraciones patrimoniales Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este conjunto de datos se presentan en formato de datos abiertos las declaraciones patrimoniales de las personas servidoras públicas que publicaron sus 3de3 en el siguiente...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/declaraciones-patrimoniales-ciudad-de-mexico;
+    <t>Declaraciones patrimoniales Ciudad de México</t>
+  </si>
+  <si>
+    <t>En este conjunto de datos se presentan en formato de datos abiertos las declaraciones patrimoniales de las personas servidoras públicas que publicaron sus 3de3 en el siguiente...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/declaraciones-patrimoniales-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/declaraciones-patrimoniales-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Fotocívicas (Ubicación)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene la ubicación de fotocívicas y radares que forman parte del programa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/fotocivicas;
+    <t>Fotocívicas (Ubicación)</t>
+  </si>
+  <si>
+    <t>Contiene la ubicación de fotocívicas y radares que forman parte del programa.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/fotocivicas;
  https://datos.cdmx.gob.mx//dataset/fotocivicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de comunidades indígenas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información contenida en este conjunto de datos corresponde al Padrón de Beneficiarios del Programa de Fortalecimiento y Apoyo a las Comunidades Indígenas (FACO) de la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-comunidades-indigenas;
+    <t>Padrón de comunidades indígenas</t>
+  </si>
+  <si>
+    <t>La información contenida en este conjunto de datos corresponde al Padrón de Beneficiarios del Programa de Fortalecimiento y Apoyo a las Comunidades Indígenas (FACO) de la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-comunidades-indigenas;
  https://datos.cdmx.gob.mx//dataset/padron-de-comunidades-indigenas</t>
   </si>
   <si>
-    <t xml:space="preserve">Economía y turismo en el Centro Histórico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información sobre los hoteles, mercados y museos que se encuentran en el Centro Histórico de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/economia-y-turismo-en-el-centro-historico;
+    <t>Economía y turismo en el Centro Histórico</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información sobre los hoteles, mercados y museos que se encuentran en el Centro Histórico de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/economia-y-turismo-en-el-centro-historico;
  https://datos.cdmx.gob.mx//dataset/economia-y-turismo-en-el-centro-historico</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas de riesgo - Sísmico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de sismos del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-sismico;
+    <t>11</t>
+  </si>
+  <si>
+    <t>Atlas de riesgo - Sísmico</t>
+  </si>
+  <si>
+    <t>Indicador de sismos del módulo de peligros del Atlas de riegos de la Ciudad de México a nivel Ageb.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-sismico;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-sismico;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-sismico;
  https://datos.cdmx.gob.mx//dataset/atlas-de-riesgo-sismico</t>
   </si>
   <si>
-    <t xml:space="preserve">Propuestas ciudadanas para el Mapa Ciclista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra un listado de las propuestas realizadas por las y los ciudadanos para integrar al primer mapa ciclista de la Secretaría de Movilidad(SEMOVI) en la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-mapa-ciclista;
+    <t>Propuestas ciudadanas para el Mapa Ciclista</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra un listado de las propuestas realizadas por las y los ciudadanos para integrar al primer mapa ciclista de la Secretaría de Movilidad(SEMOVI) en la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-mapa-ciclista;
  https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-mapa-ciclista;
  https://datos.cdmx.gob.mx//dataset/propuestas-ciudadanas-para-mapa-ciclista</t>
   </si>
   <si>
-    <t xml:space="preserve">Consulta Hospital Cuajimalpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar las respuestas de los participantes en la Consulta digital para la Reconstrucción del desaparecido Hospital Materno Infantil de Cuajimalpa. Las...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/consulta-hospital-cuajimalpa;
+    <t>Consulta Hospital Cuajimalpa</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar las respuestas de los participantes en la Consulta digital para la Reconstrucción del desaparecido Hospital Materno Infantil de Cuajimalpa. Las...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/consulta-hospital-cuajimalpa;
  https://datos.cdmx.gob.mx//dataset/consulta-hospital-cuajimalpa;
  https://datos.cdmx.gob.mx//dataset/consulta-hospital-cuajimalpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Comentarios Completos del Plan de Gobierno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos de comentarios recibidos por durante el proceso del Plan de Gobierno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/comentarios-completos-del-plan-de-gobierno;
+    <t>Comentarios Completos del Plan de Gobierno</t>
+  </si>
+  <si>
+    <t>Base de datos de comentarios recibidos por durante el proceso del Plan de Gobierno</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/comentarios-completos-del-plan-de-gobierno;
  https://datos.cdmx.gob.mx//dataset/comentarios-completos-del-plan-de-gobierno</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestadores de servicios turísticos de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los prestadores de servicios turísticos de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/prestadores-de-servicios-turisticos-de-la-ciudad-de-mexico;
+    <t>Prestadores de servicios turísticos de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los prestadores de servicios turísticos de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/prestadores-de-servicios-turisticos-de-la-ciudad-de-mexico;
  https://datos.cdmx.gob.mx//dataset/prestadores-de-servicios-turisticos-de-la-ciudad-de-mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Encuesta de género Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datos de la encuesta sobre la percepción de servicio, igualdad y no discriminación, género y violencia sexual en el Sistema Metrobús realizada en noviembre de 2018.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/encuesta-de-genero-metrobus;
+    <t>Encuesta de género Metrobús</t>
+  </si>
+  <si>
+    <t>Datos de la encuesta sobre la percepción de servicio, igualdad y no discriminación, género y violencia sexual en el Sistema Metrobús realizada en noviembre de 2018.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/encuesta-de-genero-metrobus;
  https://datos.cdmx.gob.mx//dataset/encuesta-de-genero-metrobus</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurso comprometido en el Fideicomiso para la Reconstrucción Integral de la ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se cuentan con los datos del recurso comprometido en el Fideicomiso para la Reconstrucción Integral de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/recurso-comprometido-en-el-fideicomiso-para-la-reconstruccion-integral-de-la-ciu;
+    <t>Recurso comprometido en el Fideicomiso para la Reconstrucción Integral de la ...</t>
+  </si>
+  <si>
+    <t>Se cuentan con los datos del recurso comprometido en el Fideicomiso para la Reconstrucción Integral de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/recurso-comprometido-en-el-fideicomiso-para-la-reconstruccion-integral-de-la-ciu;
  https://datos.cdmx.gob.mx//dataset/recurso-comprometido-en-el-fideicomiso-para-la-reconstruccion-integral-de-la-ciu</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de médicos tradicionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información contenida en este conjunto de datos corresponde al Padrón de médicos y médicas tradicionales, incluyendo a las parteras, registrados ante la Secretaria de Pueblos...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-medicos-tradicionales;
+    <t>Padrón de médicos tradicionales</t>
+  </si>
+  <si>
+    <t>La información contenida en este conjunto de datos corresponde al Padrón de médicos y médicas tradicionales, incluyendo a las parteras, registrados ante la Secretaria de Pueblos...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-medicos-tradicionales;
  https://datos.cdmx.gob.mx//dataset/padron-de-medicos-tradicionales</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudio de conteo ciclista 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados del Estudio de Movilidad Ciclista 2018: Conteo ciclista. Se anexa el Diccionario de la base de datos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estudio-de-conteo-ciclista-2018;
+    <t>Estudio de conteo ciclista 2018</t>
+  </si>
+  <si>
+    <t>Resultados del Estudio de Movilidad Ciclista 2018: Conteo ciclista. Se anexa el Diccionario de la base de datos.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estudio-de-conteo-ciclista-2018;
  https://datos.cdmx.gob.mx//dataset/estudio-de-conteo-ciclista-2018;
  https://datos.cdmx.gob.mx//dataset/estudio-de-conteo-ciclista-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de traductores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información contenida en esta base de datos corresponde al Padrón de beneficiarios del programa “Liberación de Indígenas en Prisión. Apoyo a Personas Preliberadas y Red de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-traductores;
+    <t>Padrón de traductores</t>
+  </si>
+  <si>
+    <t>La información contenida en esta base de datos corresponde al Padrón de beneficiarios del programa “Liberación de Indígenas en Prisión. Apoyo a Personas Preliberadas y Red de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-traductores;
  https://datos.cdmx.gob.mx//dataset/padron-de-traductores</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupos Voluntarios Asociaciones y Organizaciones Civiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra el padrón de grupos voluntarios, asociaciones, organizaciones civiles, brigadistas comunitarios y comités de ayuda mutua en materia de protección civil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/grupos-voluntarios-asociaciones-y-organizaciones-civiles;
+    <t>Grupos Voluntarios Asociaciones y Organizaciones Civiles</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra el padrón de grupos voluntarios, asociaciones, organizaciones civiles, brigadistas comunitarios y comités de ayuda mutua en materia de protección civil.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/grupos-voluntarios-asociaciones-y-organizaciones-civiles;
  https://datos.cdmx.gob.mx//dataset/grupos-voluntarios-asociaciones-y-organizaciones-civiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Acciones realizadas por la Procuraduría de la Defensa del Trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar información acerca de las asesorías, representaciones y conciliaciones realizadas por la Procuraduría de la Defensa del Trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/asesorias-representaciones-y-conciliaciones-realizadas-por-la-procuraduria-de-la;
+    <t>Acciones realizadas por la Procuraduría de la Defensa del Trabajo</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar información acerca de las asesorías, representaciones y conciliaciones realizadas por la Procuraduría de la Defensa del Trabajo.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/asesorias-representaciones-y-conciliaciones-realizadas-por-la-procuraduria-de-la;
  https://datos.cdmx.gob.mx//dataset/asesorias-representaciones-y-conciliaciones-realizadas-por-la-procuraduria-de-la</t>
   </si>
   <si>
-    <t xml:space="preserve">Estaciones de Ecobici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación geográfica de las estaciones de Ecobici en la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-de-ecobici;
+    <t>Estaciones de Ecobici</t>
+  </si>
+  <si>
+    <t>Ubicación geográfica de las estaciones de Ecobici en la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-de-ecobici;
  https://datos.cdmx.gob.mx//dataset/estaciones-de-ecobici</t>
   </si>
   <si>
-    <t xml:space="preserve">Padrón de artesanos, productores y artesanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información contenida en este conjunto de datos corresponde al Padrón de Artesanos, productores y comerciantes de la Secretaria de Pueblos y Barrios Originarios y Comunidades...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/padron-de-artesanos-productores-y-artesanos;
+    <t>Padrón de artesanos, productores y artesanos</t>
+  </si>
+  <si>
+    <t>La información contenida en este conjunto de datos corresponde al Padrón de Artesanos, productores y comerciantes de la Secretaria de Pueblos y Barrios Originarios y Comunidades...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/padron-de-artesanos-productores-y-artesanos;
  https://datos.cdmx.gob.mx//dataset/padron-de-artesanos-productores-y-artesanos</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipos de cobro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En esta base podrás encontrar la localización de los equipos de cobro de parquímetros que se encuentran en operación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/equipos-de-cobro1;
+    <t>Equipos de cobro</t>
+  </si>
+  <si>
+    <t>En esta base podrás encontrar la localización de los equipos de cobro de parquímetros que se encuentran en operación.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/equipos-de-cobro1;
  https://datos.cdmx.gob.mx//dataset/equipos-de-cobro1</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas y estaciones del Metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conjunto de datos incluye las líneas y estaciones del Sistema de Transporte Colectivo "Metro"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metro;
+    <t>Líneas y estaciones del Metro</t>
+  </si>
+  <si>
+    <t>El conjunto de datos incluye las líneas y estaciones del Sistema de Transporte Colectivo "Metro"</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metro;
  https://datos.cdmx.gob.mx//dataset/lineas-y-estaciones-del-metro</t>
   </si>
   <si>
-    <t xml:space="preserve">Líneas y estaciones del Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conjunto de datos incluye las líneas y estaciones del Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-metrobus0;
+    <t>Líneas y estaciones del Metrobús</t>
+  </si>
+  <si>
+    <t>El conjunto de datos incluye las líneas y estaciones del Metrobús</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-metrobus0;
  https://datos.cdmx.gob.mx//dataset/estaciones-metrobus0</t>
   </si>
   <si>
-    <t xml:space="preserve">Atención de módulos de información turística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los registros de atención otorgados a visitantes nacionales e internacionales en Módulos de Información Turística de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/atencion-de-modulos-de-informacion-turistica;
+    <t>Atención de módulos de información turística</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los registros de atención otorgados a visitantes nacionales e internacionales en Módulos de Información Turística de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/atencion-de-modulos-de-informacion-turistica;
  https://datos.cdmx.gob.mx//dataset/atencion-de-modulos-de-informacion-turistica</t>
   </si>
   <si>
-    <t xml:space="preserve">Vivienda - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. La dimensión de vivienda se construye con dos subdimensiones: 1)...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/vivienda-indice-de-desarrollo-social-en-la-ciudad;
+    <t>Vivienda - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. La dimensión de vivienda se construye con dos subdimensiones: 1)...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/vivienda-indice-de-desarrollo-social-en-la-ciudad;
  https://datos.cdmx.gob.mx//dataset/vivienda-indice-de-desarrollo-social-en-la-ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Apoyos Económicos Emergente para Personas que Ejercen el Comercio en Vía Pública</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta base de datos muestra los Apoyos económicos emergentes para personas que ejercen el comercio en vía pública en la modalidad de preparación y venta de alimentos en colonias,...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/apoyos-a-comerciantes-de-alimentos-preparados;
+    <t>Apoyos Económicos Emergente para Personas que Ejercen el Comercio en Vía Pública</t>
+  </si>
+  <si>
+    <t>Esta base de datos muestra los Apoyos económicos emergentes para personas que ejercen el comercio en vía pública en la modalidad de preparación y venta de alimentos en colonias,...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/apoyos-a-comerciantes-de-alimentos-preparados;
  https://datos.cdmx.gob.mx//dataset/apoyos-a-comerciantes-de-alimentos-preparados</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bienes Durables - Índice de Desarrollo Social en la Ciudad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Para el cálculo de este indicador, se suma el valor de los bienes...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_bienes_dur;
+    <t>12</t>
+  </si>
+  <si>
+    <t>Bienes Durables - Índice de Desarrollo Social en la Ciudad</t>
+  </si>
+  <si>
+    <t>Es una de las ocho dimensiones usadas por Evalúa, a través de las cuales mide el desarrollo social en la CDMX. Para el cálculo de este indicador, se suma el valor de los bienes...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_bienes_dur;
  https://datos.cdmx.gob.mx//dataset/diagnostico-cdmx_2015_bienes_dur</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de afluencia promedio en las líneas del Metrobús de la CDMX por semana...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este conjunto de datos contiene el índice de afluencia en el metrobús de la CDMX en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se considera una...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-las-lineas-del-metrobus-de-la-cdmx-por-semana-y-;
+    <t>Índice de afluencia promedio en las líneas del Metrobús de la CDMX por semana...</t>
+  </si>
+  <si>
+    <t>Este conjunto de datos contiene el índice de afluencia en el metrobús de la CDMX en los días martes, miércoles y jueves a partir de la semana 10 de 2020, que se considera una...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-las-lineas-del-metrobus-de-la-cdmx-por-semana-y-;
  https://datos.cdmx.gob.mx//dataset/indice-de-afluencia-promedio-en-las-lineas-del-metrobus-de-la-cdmx-por-semana-y-</t>
   </si>
   <si>
-    <t xml:space="preserve">Estaciones de Metrobús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubicación geográfica de las estaciones de Metrobús de la Ciudad de México.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/estaciones-metrobus;
+    <t>Estaciones de Metrobús</t>
+  </si>
+  <si>
+    <t>Ubicación geográfica de las estaciones de Metrobús de la Ciudad de México.</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/estaciones-metrobus;
  https://datos.cdmx.gob.mx//dataset/estaciones-metrobus</t>
   </si>
   <si>
-    <t xml:space="preserve">Llamadas realizadas a Línea Mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La base de datos de "Línea Mujeres" fue completada en noviembre de 2020 para incluir todos los Servicios para la población en general. Ahora podrás encontrarla en esta liga la...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/linea-mujeres;
+    <t>Llamadas realizadas a Línea Mujeres</t>
+  </si>
+  <si>
+    <t>La base de datos de "Línea Mujeres" fue completada en noviembre de 2020 para incluir todos los Servicios para la población en general. Ahora podrás encontrarla en esta liga la...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/linea-mujeres;
  https://datos.cdmx.gob.mx//dataset/linea-mujeres;
  https://datos.cdmx.gob.mx//dataset/linea-mujeres</t>
   </si>
   <si>
-    <t xml:space="preserve">Niveles de Radiación UVB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/niveles-de-radiacion-uvb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiación Solar (UVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/radiacion-solar-uva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión Atmosférica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/presion-atmosferica0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Índice de la Calidad del aire (horarios)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/indice-de-la-calidad-del-aire-horarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medición de Meteorología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/medicion-de-meteorologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentración (Depósito total)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/concentracion-deposito-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedios de 24 horas de Dióxido de Azufre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/promedios-de-24-horas-de-dioxido-de-azufre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósito (Depósito húmedo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/deposito-deposito-humedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partículas suspendidas(PM10, PM2.5 y PST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/particulas-suspendidaspm10-pm25-y-pst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentración (Depósito húmedo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentración (Depósito húmedo) Esta base de datos la puedes encontrar en la página de la Dirección de la Calidad del Aire de la Secretaría de Medio Ambiente de la Ciudad de...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.cdmx.gob.mx//dataset/concentracion-deposito-humedo</t>
+    <t>Niveles de Radiación UVB</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/niveles-de-radiacion-uvb</t>
+  </si>
+  <si>
+    <t>Radiación Solar (UVA)</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/radiacion-solar-uva</t>
+  </si>
+  <si>
+    <t>Presión Atmosférica</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/presion-atmosferica0</t>
+  </si>
+  <si>
+    <t>Índice de la Calidad del aire (horarios)</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/indice-de-la-calidad-del-aire-horarios</t>
+  </si>
+  <si>
+    <t>Medición de Meteorología</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/medicion-de-meteorologia</t>
+  </si>
+  <si>
+    <t>Concentración (Depósito total)</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/concentracion-deposito-total</t>
+  </si>
+  <si>
+    <t>Promedios de 24 horas de Dióxido de Azufre</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/promedios-de-24-horas-de-dioxido-de-azufre</t>
+  </si>
+  <si>
+    <t>Depósito (Depósito húmedo)</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/deposito-deposito-humedo</t>
+  </si>
+  <si>
+    <t>Partículas suspendidas(PM10, PM2.5 y PST)</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/particulas-suspendidaspm10-pm25-y-pst</t>
+  </si>
+  <si>
+    <t>Concentración (Depósito húmedo)</t>
+  </si>
+  <si>
+    <t>Concentración (Depósito húmedo) Esta base de datos la puedes encontrar en la página de la Dirección de la Calidad del Aire de la Secretaría de Medio Ambiente de la Ciudad de...</t>
+  </si>
+  <si>
+    <t>https://datos.cdmx.gob.mx//dataset/concentracion-deposito-humedo</t>
+  </si>
+  <si>
+    <t>En esta base encontrarás la información relacionada con las convocatorias de contrataciones públicas de las alcaldías y entidades de la Administración Pública de la Ciudad de…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2555,13 +2576,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2843,14 +2875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2934,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2948,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2976,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2990,7 +3028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3004,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +3070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3046,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3060,7 +3098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3074,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3088,7 +3126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3102,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3116,7 +3154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3130,7 +3168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3144,8 +3182,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
@@ -3158,8 +3196,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B23" t="s">
@@ -3172,8 +3210,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B24" t="s">
@@ -3186,8 +3224,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B25" t="s">
@@ -3200,8 +3238,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B26" t="s">
@@ -3214,7 +3252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3228,7 +3266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3242,8 +3280,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B29" t="s">
@@ -3256,8 +3294,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
@@ -3270,7 +3308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3284,7 +3322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -3298,7 +3336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -3312,7 +3350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3326,7 +3364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3340,7 +3378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -3354,7 +3392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3368,7 +3406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -3382,7 +3420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -3396,7 +3434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -3410,7 +3448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -3424,7 +3462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -3438,7 +3476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -3452,7 +3490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3466,7 +3504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -3480,7 +3518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -3494,7 +3532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -3508,7 +3546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3522,7 +3560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -3536,7 +3574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -3550,7 +3588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -3564,7 +3602,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -3578,7 +3616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -3592,7 +3630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3606,7 +3644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -3620,7 +3658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -3634,7 +3672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -3648,7 +3686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -3662,7 +3700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -3676,7 +3714,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -3690,7 +3728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -3704,7 +3742,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -3718,7 +3756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -3732,7 +3770,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -3746,7 +3784,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -3760,7 +3798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -3774,7 +3812,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -3788,7 +3826,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -3802,7 +3840,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -3816,7 +3854,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -3830,7 +3868,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3844,7 +3882,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -3858,7 +3896,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3872,7 +3910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -3886,7 +3924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -3900,7 +3938,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -3914,7 +3952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -3928,7 +3966,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -3942,7 +3980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -3956,7 +3994,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3970,7 +4008,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -3984,7 +4022,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -3998,7 +4036,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>252</v>
       </c>
@@ -4012,7 +4050,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>255</v>
       </c>
@@ -4026,7 +4064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -4040,7 +4078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -4054,7 +4092,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -4068,7 +4106,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -4082,7 +4120,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -4096,7 +4134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>273</v>
       </c>
@@ -4110,7 +4148,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>276</v>
       </c>
@@ -4124,7 +4162,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>279</v>
       </c>
@@ -4138,7 +4176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>282</v>
       </c>
@@ -4152,7 +4190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>285</v>
       </c>
@@ -4166,7 +4204,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>288</v>
       </c>
@@ -4180,7 +4218,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -4194,7 +4232,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -4208,7 +4246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>297</v>
       </c>
@@ -4222,7 +4260,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>300</v>
       </c>
@@ -4236,7 +4274,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>303</v>
       </c>
@@ -4250,7 +4288,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>306</v>
       </c>
@@ -4264,7 +4302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>309</v>
       </c>
@@ -4278,7 +4316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>313</v>
       </c>
@@ -4292,7 +4330,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>316</v>
       </c>
@@ -4306,7 +4344,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -4320,7 +4358,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -4334,7 +4372,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>325</v>
       </c>
@@ -4348,7 +4386,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>328</v>
       </c>
@@ -4362,7 +4400,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>331</v>
       </c>
@@ -4376,7 +4414,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -4390,7 +4428,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>337</v>
       </c>
@@ -4404,7 +4442,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -4418,7 +4456,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -4446,7 +4484,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -4460,7 +4498,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>352</v>
       </c>
@@ -4474,7 +4512,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>355</v>
       </c>
@@ -4488,7 +4526,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>358</v>
       </c>
@@ -4502,7 +4540,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -4516,7 +4554,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>364</v>
       </c>
@@ -4530,7 +4568,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>367</v>
       </c>
@@ -4544,7 +4582,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>370</v>
       </c>
@@ -4558,7 +4596,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>374</v>
       </c>
@@ -4572,7 +4610,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>377</v>
       </c>
@@ -4586,7 +4624,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>380</v>
       </c>
@@ -4600,7 +4638,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>383</v>
       </c>
@@ -4614,7 +4652,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>386</v>
       </c>
@@ -4628,7 +4666,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>389</v>
       </c>
@@ -4642,7 +4680,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>392</v>
       </c>
@@ -4656,7 +4694,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>395</v>
       </c>
@@ -4670,7 +4708,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>398</v>
       </c>
@@ -4684,7 +4722,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>401</v>
       </c>
@@ -4698,7 +4736,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>404</v>
       </c>
@@ -4712,7 +4750,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>407</v>
       </c>
@@ -4726,7 +4764,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -4740,7 +4778,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>413</v>
       </c>
@@ -4754,7 +4792,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>416</v>
       </c>
@@ -4768,7 +4806,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>419</v>
       </c>
@@ -4782,7 +4820,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>422</v>
       </c>
@@ -4796,1366 +4834,1366 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>425</v>
       </c>
       <c r="B140" t="s">
+        <v>701</v>
+      </c>
+      <c r="C140" t="s">
         <v>426</v>
-      </c>
-      <c r="C140" t="s">
-        <v>427</v>
       </c>
       <c r="D140" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141" t="s">
         <v>428</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>429</v>
-      </c>
-      <c r="C141" t="s">
-        <v>430</v>
       </c>
       <c r="D141" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>430</v>
+      </c>
+      <c r="B142" t="s">
         <v>431</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>432</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>433</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>435</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>436</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>437</v>
       </c>
-      <c r="D143" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>438</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>439</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>440</v>
       </c>
-      <c r="D144" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>441</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>442</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>443</v>
       </c>
-      <c r="D145" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>444</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>445</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>446</v>
       </c>
-      <c r="D146" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
         <v>447</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>448</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>449</v>
       </c>
-      <c r="D147" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
         <v>450</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>451</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>452</v>
       </c>
-      <c r="D148" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
         <v>453</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>454</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>455</v>
       </c>
-      <c r="D149" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
         <v>456</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>457</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>458</v>
       </c>
-      <c r="D150" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
         <v>459</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>460</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>461</v>
       </c>
-      <c r="D151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>462</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>463</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>464</v>
-      </c>
-      <c r="D152" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>465</v>
       </c>
       <c r="B153" t="s">
         <v>9</v>
       </c>
       <c r="C153" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>466</v>
       </c>
-      <c r="D153" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>467</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>468</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>469</v>
       </c>
-      <c r="D154" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>470</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>471</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>472</v>
       </c>
-      <c r="D155" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
         <v>473</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>474</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>475</v>
       </c>
-      <c r="D156" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
         <v>476</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>477</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>478</v>
-      </c>
-      <c r="D157" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>479</v>
       </c>
       <c r="B158" t="s">
         <v>231</v>
       </c>
       <c r="C158" t="s">
+        <v>479</v>
+      </c>
+      <c r="D158" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>480</v>
       </c>
-      <c r="D158" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
         <v>481</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>482</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>483</v>
       </c>
-      <c r="D159" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
         <v>484</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>485</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>486</v>
       </c>
-      <c r="D160" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
         <v>487</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>488</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>489</v>
       </c>
-      <c r="D161" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
         <v>490</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>491</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>492</v>
       </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
         <v>494</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>495</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>496</v>
       </c>
-      <c r="D163" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
         <v>497</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>498</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>499</v>
       </c>
-      <c r="D164" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
         <v>500</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>501</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>502</v>
-      </c>
-      <c r="D165" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>503</v>
       </c>
       <c r="B166" t="s">
         <v>76</v>
       </c>
       <c r="C166" t="s">
+        <v>503</v>
+      </c>
+      <c r="D166" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>504</v>
       </c>
-      <c r="D166" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
         <v>505</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>506</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>507</v>
-      </c>
-      <c r="D167" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>508</v>
       </c>
       <c r="B168" t="s">
         <v>76</v>
       </c>
       <c r="C168" t="s">
+        <v>508</v>
+      </c>
+      <c r="D168" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>509</v>
       </c>
-      <c r="D168" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
         <v>510</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>511</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>512</v>
       </c>
-      <c r="D169" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
         <v>513</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>514</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>515</v>
-      </c>
-      <c r="D170" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>516</v>
       </c>
       <c r="B171" t="s">
         <v>103</v>
       </c>
       <c r="C171" t="s">
+        <v>516</v>
+      </c>
+      <c r="D171" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>517</v>
       </c>
-      <c r="D171" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
         <v>518</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>519</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>520</v>
       </c>
-      <c r="D172" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
         <v>521</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>522</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>523</v>
       </c>
-      <c r="D173" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
         <v>524</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>525</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>526</v>
       </c>
-      <c r="D174" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>428</v>
+      </c>
+      <c r="C175" t="s">
         <v>527</v>
       </c>
-      <c r="B175" t="s">
-        <v>429</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>528</v>
       </c>
-      <c r="D175" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
+      <c r="B176" t="s">
         <v>529</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>530</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>531</v>
       </c>
-      <c r="D176" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
         <v>532</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>533</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>534</v>
       </c>
-      <c r="D177" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
         <v>535</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>536</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>537</v>
       </c>
-      <c r="D178" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
         <v>538</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>539</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>540</v>
       </c>
-      <c r="D179" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
         <v>541</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>542</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>543</v>
       </c>
-      <c r="D180" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
         <v>544</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>545</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>546</v>
-      </c>
-      <c r="D181" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>547</v>
       </c>
       <c r="B182" t="s">
         <v>274</v>
       </c>
       <c r="C182" t="s">
+        <v>547</v>
+      </c>
+      <c r="D182" t="s">
         <v>548</v>
       </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
         <v>550</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>551</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>552</v>
       </c>
-      <c r="D183" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
         <v>553</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>554</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>555</v>
       </c>
-      <c r="D184" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
         <v>556</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>557</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>558</v>
-      </c>
-      <c r="D185" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>559</v>
       </c>
       <c r="B186" t="s">
         <v>76</v>
       </c>
       <c r="C186" t="s">
+        <v>559</v>
+      </c>
+      <c r="D186" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>560</v>
       </c>
-      <c r="D186" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
         <v>561</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>562</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>563</v>
       </c>
-      <c r="D187" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
+      <c r="B188" t="s">
         <v>564</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>565</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>566</v>
       </c>
-      <c r="D188" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
         <v>567</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>568</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>569</v>
       </c>
-      <c r="D189" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
+      <c r="B190" t="s">
         <v>570</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>571</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>572</v>
       </c>
-      <c r="D190" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
         <v>573</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>574</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>552</v>
+      </c>
+      <c r="B192" t="s">
         <v>575</v>
       </c>
-      <c r="D191" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>553</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>576</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>577</v>
       </c>
-      <c r="D192" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
         <v>578</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>579</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>580</v>
       </c>
-      <c r="D193" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
         <v>581</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>582</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>583</v>
       </c>
-      <c r="D194" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
+      <c r="B195" t="s">
         <v>584</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>585</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>586</v>
       </c>
-      <c r="D195" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
+      <c r="B196" t="s">
         <v>587</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>588</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>589</v>
       </c>
-      <c r="D196" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
+        <v>589</v>
+      </c>
+      <c r="C197" t="s">
         <v>590</v>
       </c>
-      <c r="B197" t="s">
-        <v>590</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>591</v>
       </c>
-      <c r="D197" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
         <v>592</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>593</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>594</v>
       </c>
-      <c r="D198" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
+      <c r="B199" t="s">
         <v>595</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>596</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>597</v>
       </c>
-      <c r="D199" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
         <v>598</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>599</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>600</v>
       </c>
-      <c r="D200" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
+      <c r="B201" t="s">
         <v>601</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>602</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>603</v>
       </c>
-      <c r="D201" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
         <v>604</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>605</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>606</v>
       </c>
-      <c r="D202" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
         <v>608</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>609</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>610</v>
       </c>
-      <c r="D203" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
         <v>611</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>612</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>613</v>
       </c>
-      <c r="D204" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
         <v>614</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>615</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>616</v>
       </c>
-      <c r="D205" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
         <v>617</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>618</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>619</v>
       </c>
-      <c r="D206" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
         <v>620</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>621</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>622</v>
       </c>
-      <c r="D207" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
         <v>623</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>624</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>625</v>
       </c>
-      <c r="D208" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
+      <c r="B209" t="s">
         <v>626</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>627</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>628</v>
       </c>
-      <c r="D209" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
+      <c r="B210" t="s">
         <v>629</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>630</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>631</v>
       </c>
-      <c r="D210" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
+      <c r="B211" t="s">
         <v>632</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>633</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>634</v>
       </c>
-      <c r="D211" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
+      <c r="B212" t="s">
         <v>635</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>636</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>637</v>
       </c>
-      <c r="D212" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
+      <c r="B213" t="s">
         <v>638</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>639</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>640</v>
       </c>
-      <c r="D213" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
         <v>641</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>642</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>643</v>
       </c>
-      <c r="D214" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
         <v>644</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>645</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>646</v>
       </c>
-      <c r="D215" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
         <v>647</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>648</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>649</v>
       </c>
-      <c r="D216" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
         <v>650</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>651</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>652</v>
       </c>
-      <c r="D217" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
+      <c r="B218" t="s">
         <v>653</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>654</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>655</v>
       </c>
-      <c r="D218" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
+      <c r="B219" t="s">
         <v>656</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>657</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>658</v>
       </c>
-      <c r="D219" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
+      <c r="B220" t="s">
         <v>659</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>660</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>661</v>
       </c>
-      <c r="D220" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
         <v>662</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>663</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>664</v>
       </c>
-      <c r="D221" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
         <v>665</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>666</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>667</v>
       </c>
-      <c r="D222" t="s">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
         <v>669</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>670</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>671</v>
       </c>
-      <c r="D223" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
         <v>672</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>673</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>674</v>
       </c>
-      <c r="D224" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
         <v>675</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>676</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>677</v>
       </c>
-      <c r="D225" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
         <v>678</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>679</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>680</v>
-      </c>
-      <c r="D226" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>681</v>
       </c>
       <c r="B227" t="s">
         <v>60</v>
       </c>
       <c r="C227" t="s">
+        <v>681</v>
+      </c>
+      <c r="D227" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>682</v>
-      </c>
-      <c r="D227" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>683</v>
       </c>
       <c r="B228" t="s">
         <v>60</v>
       </c>
       <c r="C228" t="s">
+        <v>683</v>
+      </c>
+      <c r="D228" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>684</v>
-      </c>
-      <c r="D228" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>685</v>
       </c>
       <c r="B229" t="s">
         <v>60</v>
       </c>
       <c r="C229" t="s">
+        <v>685</v>
+      </c>
+      <c r="D229" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>686</v>
-      </c>
-      <c r="D229" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>687</v>
       </c>
       <c r="B230" t="s">
         <v>60</v>
       </c>
       <c r="C230" t="s">
+        <v>687</v>
+      </c>
+      <c r="D230" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>688</v>
-      </c>
-      <c r="D230" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>689</v>
       </c>
       <c r="B231" t="s">
         <v>60</v>
       </c>
       <c r="C231" t="s">
+        <v>689</v>
+      </c>
+      <c r="D231" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>690</v>
-      </c>
-      <c r="D231" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>691</v>
       </c>
       <c r="B232" t="s">
         <v>60</v>
       </c>
       <c r="C232" t="s">
+        <v>691</v>
+      </c>
+      <c r="D232" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>692</v>
-      </c>
-      <c r="D232" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>693</v>
       </c>
       <c r="B233" t="s">
         <v>60</v>
       </c>
       <c r="C233" t="s">
+        <v>693</v>
+      </c>
+      <c r="D233" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>694</v>
-      </c>
-      <c r="D233" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>695</v>
       </c>
       <c r="B234" t="s">
         <v>60</v>
       </c>
       <c r="C234" t="s">
+        <v>695</v>
+      </c>
+      <c r="D234" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>696</v>
-      </c>
-      <c r="D234" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>697</v>
       </c>
       <c r="B235" t="s">
         <v>60</v>
       </c>
       <c r="C235" t="s">
+        <v>697</v>
+      </c>
+      <c r="D235" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>698</v>
       </c>
-      <c r="D235" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
         <v>699</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>700</v>
       </c>
-      <c r="C236" t="s">
-        <v>701</v>
-      </c>
       <c r="D236" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/datos_disponibles_tudinero_cdmx.xlsx
+++ b/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/datos_disponibles_tudinero_cdmx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/Documentos - MacBook Pro de Juvenal/GitHub/ig_juvenalcampos.dataviz/2021-08 Agosto/2021-08-27-Datos_Adip_CDMX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20360608-D33B-984B-B2B2-C257CBF3943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C6D5D-9AB9-3844-8951-B767D343BAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24220" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="703">
   <si>
     <t>datasets</t>
   </si>
@@ -2528,12 +2528,15 @@
   <si>
     <t>En esta base encontrarás la información relacionada con las convocatorias de contrataciones públicas de las alcaldías y entidades de la Administración Pública de la Ciudad de…</t>
   </si>
+  <si>
+    <t>ambiental</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2551,6 +2554,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2576,10 +2587,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,3319 +2888,3459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76.5" customWidth="1"/>
-    <col min="2" max="2" width="77.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>107</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>117</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>122</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>124</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>127</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>130</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>131</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>132</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>133</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>134</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>135</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>141</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>145</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>146</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>148</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>149</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>150</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>153</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>155</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>157</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>159</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>161</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>162</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>163</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>164</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>165</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>166</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>167</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>168</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>169</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>171</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>172</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>174</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>176</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>177</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>178</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>180</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>181</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>182</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>183</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>185</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>186</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>187</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>188</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>189</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>191</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>192</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>193</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>194</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>195</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>196</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>197</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>199</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>201</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>202</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>203</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>204</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>205</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>206</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>207</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>208</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>210</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>211</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>212</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>213</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>214</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>215</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>216</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>217</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>218</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>219</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>220</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>221</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>222</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>223</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>224</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>225</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>226</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>227</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>228</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>229</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>230</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>231</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>232</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>233</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>234</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>235</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>236</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>237</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>238</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>239</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>240</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>241</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>242</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>243</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>244</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>245</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>246</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>247</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>249</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>250</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>252</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>253</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>254</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>255</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>256</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>257</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>258</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>259</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>260</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
         <v>262</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>263</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>264</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>265</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>266</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>267</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>268</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>269</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>270</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>271</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>272</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>273</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>274</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>275</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>276</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>277</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>278</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>279</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>280</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>281</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>282</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>283</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>284</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>285</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>286</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>287</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>288</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>289</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>290</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>291</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>292</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>293</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>294</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>295</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>296</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>297</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>299</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>300</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>301</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>302</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>303</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>304</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>305</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>306</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>307</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>308</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>309</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>310</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>311</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>313</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>314</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>315</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>316</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>317</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>318</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>319</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>320</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>321</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>322</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>323</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>324</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>325</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>326</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>327</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>328</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>329</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>330</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>331</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>332</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>333</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>334</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>335</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>336</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>337</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>338</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>339</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>340</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>341</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>342</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>343</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>344</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>345</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>346</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>347</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>348</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>349</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>350</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>351</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>352</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>353</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>354</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>355</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>356</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>357</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>358</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>359</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>360</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>361</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
         <v>362</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>363</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>364</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>365</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>366</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>367</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>368</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>369</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>370</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>371</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>372</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>374</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>375</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>376</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>377</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>378</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>379</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>380</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>381</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>382</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>383</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>384</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>385</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>386</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>387</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>388</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>389</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>390</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>391</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>392</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>393</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>394</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>395</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>396</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>397</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>398</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>399</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>400</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>401</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>402</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>403</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>404</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>405</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>406</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>407</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>408</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>409</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>410</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>411</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>412</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>413</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>414</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>415</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>416</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>417</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>418</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>419</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>420</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>421</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>422</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>423</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>424</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>425</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>701</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>426</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>427</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>428</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>429</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>430</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>431</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>432</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>434</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>435</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>436</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>437</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>438</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>439</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>440</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>441</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>442</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>443</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>444</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>445</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>446</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>447</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>448</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>449</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>450</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>451</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>452</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>453</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>454</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>455</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>456</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>457</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>458</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>459</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>460</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>461</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>462</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>463</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>464</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>9</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>465</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>466</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>467</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>468</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>469</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>470</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>471</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>472</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>473</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>474</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>475</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>476</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>477</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>478</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>231</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>479</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>480</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>481</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>482</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>483</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>484</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>485</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>486</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>487</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>488</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>489</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>490</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>491</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>493</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>494</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>495</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>496</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>497</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>498</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>499</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
         <v>500</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>501</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>502</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>76</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>503</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>504</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
         <v>505</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>506</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>507</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>76</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>508</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>509</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>510</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>511</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>512</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>513</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>514</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>515</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>103</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>516</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>517</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>518</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>519</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>520</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>521</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>522</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>523</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>524</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>525</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>526</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>428</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>527</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>528</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>529</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>530</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>531</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>532</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>533</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>534</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
         <v>535</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>536</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>537</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>538</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>539</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>540</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>541</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>542</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>543</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
         <v>544</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>545</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>546</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
         <v>274</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>547</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>549</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>550</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>551</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>552</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>553</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>554</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>555</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>556</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>557</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>558</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>76</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>559</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>560</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
         <v>561</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>562</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>563</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>564</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>565</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>566</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>567</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>568</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>569</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>570</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>571</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>572</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>573</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>574</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>552</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>575</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>576</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>577</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>578</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>579</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>580</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>581</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>582</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>583</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>584</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>585</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>586</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>587</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>588</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>589</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>589</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>590</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>591</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>592</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>593</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>594</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>595</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>596</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>597</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>598</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>599</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>600</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>601</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>602</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>603</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>604</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>605</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>607</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
         <v>608</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>609</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>610</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>611</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>612</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>613</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>614</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>615</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>616</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>617</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>618</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>619</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>620</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>621</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>622</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>623</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>624</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>625</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>626</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>627</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>628</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>629</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>630</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>631</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>632</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>633</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>634</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>635</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>636</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>637</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>638</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>639</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>640</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>641</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>642</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>643</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>644</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>645</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>646</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>647</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>648</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>649</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>650</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>651</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>652</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>653</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>654</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>655</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>656</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>657</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>658</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>659</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>660</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>661</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>662</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>663</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>664</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>665</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>666</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>668</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>669</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>670</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>671</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>672</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>673</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>674</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>675</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>676</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>677</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>678</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>679</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>680</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
         <v>60</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>681</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>682</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
         <v>60</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>683</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>684</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
         <v>60</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>685</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>686</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
         <v>60</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>687</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>688</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
         <v>60</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>689</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>690</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
         <v>60</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>691</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>692</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
         <v>60</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>693</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>694</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>60</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>695</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>696</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
         <v>60</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>697</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>698</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
         <v>699</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>700</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>667</v>
       </c>
     </row>
